--- a/website/static/home/学習進捗記録_サンプル太郎.yyyy.mm.dd.xlsx
+++ b/website/static/home/学習進捗記録_サンプル太郎.yyyy.mm.dd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\oyama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\oyama\表彰\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0BD09C-A374-4439-8EF9-0ED9E156F81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4997B66D-E7F7-4451-8CC6-5612D20D92F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="705" yWindow="90" windowWidth="23655" windowHeight="15120" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29340" yWindow="-7410" windowWidth="26370" windowHeight="13215" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レッスン関連" sheetId="1" state="hidden" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="802">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="798">
   <si>
     <t>テーブル名</t>
   </si>
@@ -3152,9 +3152,6 @@
     <t xml:space="preserve">    on  lessons.large_category_id = large_categories.id</t>
   </si>
   <si>
-    <t>2021/6/31</t>
-  </si>
-  <si>
     <t xml:space="preserve">        mid_categories</t>
   </si>
   <si>
@@ -3183,9 +3180,6 @@
   </si>
   <si>
     <t>Android アプリ作成レッスン一覧</t>
-  </si>
-  <si>
-    <t>2020/2/30</t>
   </si>
   <si>
     <t>Web アプリ学習カリキュラムレッスン一覧</t>
@@ -3360,20 +3354,6 @@
     <t>項目名</t>
     <rPh sb="0" eb="3">
       <t>コウモクメイ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>自主学習</t>
-    <rPh sb="0" eb="4">
-      <t>ジシュガクシュウ</t>
-    </rPh>
-    <phoneticPr fontId="13"/>
-  </si>
-  <si>
-    <t>作業工数</t>
-    <rPh sb="0" eb="4">
-      <t>サギョウコウスウ</t>
     </rPh>
     <phoneticPr fontId="13"/>
   </si>
@@ -4480,7 +4460,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4733,6 +4713,33 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4753,39 +4760,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7885,10 +7859,10 @@
   <dimension ref="B2:W156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomRight" activeCell="O92" sqref="O92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -7916,7 +7890,7 @@
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B3" s="13" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="4" spans="2:23" x14ac:dyDescent="0.4">
@@ -8015,19 +7989,19 @@
         <v>262</v>
       </c>
       <c r="K9" s="49" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="L9" s="50" t="s">
         <v>245</v>
       </c>
       <c r="M9" s="60" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="N9" s="60" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="O9" s="60" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.4">
@@ -8077,6 +8051,9 @@
       </c>
       <c r="N10" s="26">
         <f>IF(M10="●",L10,"")</f>
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
         <v>1</v>
       </c>
       <c r="P10" s="28"/>
@@ -8122,20 +8099,18 @@
         <f>'LESSONS (Android)'!J10</f>
         <v>タスク分解（タスク確認）</v>
       </c>
-      <c r="K11" s="66">
-        <v>43863</v>
-      </c>
+      <c r="K11" s="66"/>
       <c r="L11" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K10,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>0.5</v>
       </c>
       <c r="M11" s="27" t="str">
         <f t="shared" ref="M11:M74" si="0">IF(K11&lt;&gt;"","●","")</f>
-        <v>●</v>
-      </c>
-      <c r="N11" s="26">
+        <v/>
+      </c>
+      <c r="N11" s="26" t="str">
         <f t="shared" ref="N11:N74" si="1">IF(M11="●",L11,"")</f>
-        <v>0.5</v>
+        <v/>
       </c>
       <c r="P11" s="28"/>
       <c r="Q11" s="29" t="s">
@@ -8182,20 +8157,18 @@
         <f>'LESSONS (Android)'!J11</f>
         <v>スケジュール作成</v>
       </c>
-      <c r="K12" s="66">
-        <v>43863</v>
-      </c>
+      <c r="K12" s="66"/>
       <c r="L12" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K11,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M12" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N12" s="26">
+        <v/>
+      </c>
+      <c r="N12" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P12" s="28"/>
       <c r="Q12" s="29" t="s">
@@ -8242,20 +8215,18 @@
         <f>'LESSONS (Android)'!J12</f>
         <v>「キャラクター」の基礎となるクラスの作成</v>
       </c>
-      <c r="K13" s="66">
-        <v>43870</v>
-      </c>
+      <c r="K13" s="66"/>
       <c r="L13" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K12,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>0.5</v>
       </c>
       <c r="M13" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N13" s="26">
+        <v/>
+      </c>
+      <c r="N13" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v/>
       </c>
       <c r="P13" s="28"/>
       <c r="Q13" s="29" t="s">
@@ -8301,20 +8272,18 @@
         <f>'LESSONS (Android)'!J13</f>
         <v>各々の「職業」に合わせたクラスの作成</v>
       </c>
-      <c r="K14" s="66">
-        <v>43870</v>
-      </c>
+      <c r="K14" s="66"/>
       <c r="L14" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K13,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M14" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N14" s="26">
+        <v/>
+      </c>
+      <c r="N14" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P14" s="28"/>
       <c r="Q14" s="29" t="s">
@@ -8360,20 +8329,18 @@
         <f>'LESSONS (Android)'!J14</f>
         <v>ゲーム進行を制御するクラスの作成</v>
       </c>
-      <c r="K15" s="66">
-        <v>43870</v>
-      </c>
+      <c r="K15" s="66"/>
       <c r="L15" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K14,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M15" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N15" s="26">
+        <v/>
+      </c>
+      <c r="N15" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P15" s="28"/>
       <c r="Q15" s="29" t="s">
@@ -8419,20 +8386,18 @@
         <f>'LESSONS (Android)'!J15</f>
         <v>パーティー管理用クラスの作成</v>
       </c>
-      <c r="K16" s="66">
-        <v>43878</v>
-      </c>
+      <c r="K16" s="66"/>
       <c r="L16" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K15,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M16" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N16" s="26">
+        <v/>
+      </c>
+      <c r="N16" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P16" s="28"/>
       <c r="Q16" s="29" t="s">
@@ -8478,20 +8443,18 @@
         <f>'LESSONS (Android)'!J16</f>
         <v>各種魔法クラスの作成</v>
       </c>
-      <c r="K17" s="66">
-        <v>43878</v>
-      </c>
+      <c r="K17" s="66"/>
       <c r="L17" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K16,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M17" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N17" s="26">
+        <v/>
+      </c>
+      <c r="N17" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P17" s="28"/>
       <c r="Q17" s="29" t="s">
@@ -8537,20 +8500,18 @@
         <f>'LESSONS (Android)'!J17</f>
         <v>作戦クラスの作成</v>
       </c>
-      <c r="K18" s="66">
-        <v>43878</v>
-      </c>
+      <c r="K18" s="66"/>
       <c r="L18" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K17,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M18" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N18" s="26">
+        <v/>
+      </c>
+      <c r="N18" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P18" s="28"/>
       <c r="Q18" s="29" t="s">
@@ -8596,20 +8557,18 @@
         <f>'LESSONS (Android)'!J18</f>
         <v>アプリからSQLiteを使用するための準備</v>
       </c>
-      <c r="K19" s="66">
-        <v>43884</v>
-      </c>
+      <c r="K19" s="66"/>
       <c r="L19" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K18,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M19" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N19" s="26">
+        <v/>
+      </c>
+      <c r="N19" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="P19" s="28"/>
       <c r="Q19" s="29" t="s">
@@ -8655,20 +8614,18 @@
         <f>'LESSONS (Android)'!J19</f>
         <v>SQLiteのデータベースにテーブルを作成</v>
       </c>
-      <c r="K20" s="66" t="s">
-        <v>728</v>
-      </c>
+      <c r="K20" s="66"/>
       <c r="L20" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K19,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M20" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N20" s="26">
+        <v/>
+      </c>
+      <c r="N20" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="P20" s="28"/>
       <c r="Q20" s="29" t="s">
@@ -8714,20 +8671,18 @@
         <f>'LESSONS (Android)'!J20</f>
         <v>基本的なDBアクセス処理の作成(INSERT/DELETE/SELECT)</v>
       </c>
-      <c r="K21" s="66">
-        <v>43900</v>
-      </c>
+      <c r="K21" s="66"/>
       <c r="L21" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K20,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="M21" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N21" s="26">
+        <v/>
+      </c>
+      <c r="N21" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="P21" s="28"/>
       <c r="Q21" s="29" t="s">
@@ -8773,20 +8728,18 @@
         <f>'LESSONS (Android)'!J21</f>
         <v>画面ファイルの作成</v>
       </c>
-      <c r="K22" s="66">
-        <v>43908</v>
-      </c>
+      <c r="K22" s="66"/>
       <c r="L22" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K21,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M22" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N22" s="26">
+        <v/>
+      </c>
+      <c r="N22" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="P22" s="28"/>
       <c r="Q22" s="29" t="s">
@@ -8832,20 +8785,18 @@
         <f>'LESSONS (Android)'!J22</f>
         <v>【キャラクター一覧画面】に遷移</v>
       </c>
-      <c r="K23" s="66">
-        <v>43916</v>
-      </c>
+      <c r="K23" s="66"/>
       <c r="L23" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K22,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="M23" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N23" s="26">
+        <v/>
+      </c>
+      <c r="N23" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="P23" s="28"/>
       <c r="Q23" s="29" t="s">
@@ -8891,20 +8842,18 @@
         <f>'LESSONS (Android)'!J23</f>
         <v>【バトル開始画面】に遷移</v>
       </c>
-      <c r="K24" s="66">
-        <v>43931</v>
-      </c>
+      <c r="K24" s="66"/>
       <c r="L24" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K23,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M24" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N24" s="26">
+        <v/>
+      </c>
+      <c r="N24" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P24" s="28"/>
       <c r="Q24" s="29" t="s">
@@ -8950,20 +8899,18 @@
         <f>'LESSONS (Android)'!J24</f>
         <v>画面ファイルの作成</v>
       </c>
-      <c r="K25" s="66">
-        <v>43938</v>
-      </c>
+      <c r="K25" s="66"/>
       <c r="L25" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K24,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M25" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N25" s="26">
+        <v/>
+      </c>
+      <c r="N25" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P25" s="28"/>
       <c r="Q25" s="29" t="s">
@@ -9009,20 +8956,18 @@
         <f>'LESSONS (Android)'!J25</f>
         <v>〔キャラクターテーブル〕から取得したデータを表示</v>
       </c>
-      <c r="K26" s="66">
-        <v>43951</v>
-      </c>
+      <c r="K26" s="66"/>
       <c r="L26" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K25,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>5</v>
       </c>
       <c r="M26" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N26" s="26">
+        <v/>
+      </c>
+      <c r="N26" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="P26" s="28"/>
       <c r="Q26" s="29" t="s">
@@ -9068,20 +9013,18 @@
         <f>'LESSONS (Android)'!J26</f>
         <v>取得したデータ数に応じてリストの要素数を動的に変更</v>
       </c>
-      <c r="K27" s="66">
-        <v>43958</v>
-      </c>
+      <c r="K27" s="66"/>
       <c r="L27" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K26,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M27" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N27" s="26">
+        <v/>
+      </c>
+      <c r="N27" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P27" s="28"/>
       <c r="Q27" s="29" t="s">
@@ -9127,20 +9070,18 @@
         <f>'LESSONS (Android)'!J27</f>
         <v>【キャラクター詳細画面】に遷移</v>
       </c>
-      <c r="K28" s="66">
-        <v>43965</v>
-      </c>
+      <c r="K28" s="66"/>
       <c r="L28" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K27,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M28" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N28" s="26">
+        <v/>
+      </c>
+      <c r="N28" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P28" s="28"/>
       <c r="Q28" s="29" t="s">
@@ -9186,20 +9127,18 @@
         <f>'LESSONS (Android)'!J28</f>
         <v>選択したキャラクターの情報を遷移先画面に送信</v>
       </c>
-      <c r="K29" s="66">
-        <v>43973</v>
-      </c>
+      <c r="K29" s="66"/>
       <c r="L29" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K28,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="M29" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N29" s="26">
+        <v/>
+      </c>
+      <c r="N29" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="P29" s="28"/>
       <c r="Q29" s="29" t="s">
@@ -9245,20 +9184,18 @@
         <f>'LESSONS (Android)'!J29</f>
         <v>【キャラクター作成画面】に遷移</v>
       </c>
-      <c r="K30" s="66">
-        <v>43981</v>
-      </c>
+      <c r="K30" s="66"/>
       <c r="L30" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K29,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M30" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N30" s="26">
+        <v/>
+      </c>
+      <c r="N30" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P30" s="28"/>
       <c r="Q30" s="29" t="s">
@@ -9304,20 +9241,18 @@
         <f>'LESSONS (Android)'!J30</f>
         <v>画面ファイルの作成</v>
       </c>
-      <c r="K31" s="66">
-        <v>43990</v>
-      </c>
+      <c r="K31" s="66"/>
       <c r="L31" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K30,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M31" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N31" s="26">
+        <v/>
+      </c>
+      <c r="N31" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P31" s="28"/>
       <c r="Q31" s="29" t="s">
@@ -9363,20 +9298,18 @@
         <f>'LESSONS (Android)'!J31</f>
         <v>〔キャラクターテーブル〕から取得したデータを表示</v>
       </c>
-      <c r="K32" s="66">
-        <v>43998</v>
-      </c>
+      <c r="K32" s="66"/>
       <c r="L32" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K31,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M32" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N32" s="26">
+        <v/>
+      </c>
+      <c r="N32" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P32" s="28"/>
       <c r="Q32" s="29" t="s">
@@ -9422,20 +9355,18 @@
         <f>'LESSONS (Android)'!J32</f>
         <v>〔キャラクターテーブル〕からデータを削除</v>
       </c>
-      <c r="K33" s="66">
-        <v>44005</v>
-      </c>
+      <c r="K33" s="66"/>
       <c r="L33" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K32,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M33" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N33" s="26">
+        <v/>
+      </c>
+      <c r="N33" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P33" s="28"/>
       <c r="Q33" s="29" t="s">
@@ -9481,20 +9412,18 @@
         <f>'LESSONS (Android)'!J33</f>
         <v>【キャラクター一覧画面】に遷移</v>
       </c>
-      <c r="K34" s="66">
-        <v>44012</v>
-      </c>
+      <c r="K34" s="66"/>
       <c r="L34" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K33,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M34" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N34" s="26">
+        <v/>
+      </c>
+      <c r="N34" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P34" s="28"/>
       <c r="Q34" s="29" t="s">
@@ -9540,20 +9469,18 @@
         <f>'LESSONS (Android)'!J34</f>
         <v>画面ファイルの作成</v>
       </c>
-      <c r="K35" s="66">
-        <v>44019</v>
-      </c>
+      <c r="K35" s="66"/>
       <c r="L35" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K34,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M35" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N35" s="26">
+        <v/>
+      </c>
+      <c r="N35" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P35" s="28"/>
       <c r="Q35" s="29" t="s">
@@ -9599,24 +9526,22 @@
         <f>'LESSONS (Android)'!J35</f>
         <v>「キャラクター名」を入力する</v>
       </c>
-      <c r="K36" s="66">
-        <v>44028</v>
-      </c>
+      <c r="K36" s="66"/>
       <c r="L36" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K35,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="M36" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N36" s="26">
+        <v/>
+      </c>
+      <c r="N36" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="P36" s="28"/>
       <c r="Q36" s="29" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="R36" s="28"/>
       <c r="S36" s="28"/>
@@ -9658,24 +9583,22 @@
         <f>'LESSONS (Android)'!J36</f>
         <v>最大文字数チェック</v>
       </c>
-      <c r="K37" s="66">
-        <v>44035</v>
-      </c>
+      <c r="K37" s="66"/>
       <c r="L37" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K36,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M37" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N37" s="26">
+        <v/>
+      </c>
+      <c r="N37" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P37" s="28"/>
       <c r="Q37" s="29" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="R37" s="28"/>
       <c r="S37" s="28"/>
@@ -9717,20 +9640,18 @@
         <f>'LESSONS (Android)'!J37</f>
         <v>職業の一覧を表示</v>
       </c>
-      <c r="K38" s="66">
-        <v>44042</v>
-      </c>
+      <c r="K38" s="66"/>
       <c r="L38" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K37,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M38" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N38" s="26">
+        <v/>
+      </c>
+      <c r="N38" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P38" s="28"/>
       <c r="Q38" s="29" t="s">
@@ -9776,24 +9697,22 @@
         <f>'LESSONS (Android)'!J38</f>
         <v>取得したデータ数に応じてリストの要素数を動的に変更</v>
       </c>
-      <c r="K39" s="66">
-        <v>44053</v>
-      </c>
+      <c r="K39" s="66"/>
       <c r="L39" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K38,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M39" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N39" s="26">
+        <v/>
+      </c>
+      <c r="N39" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P39" s="28"/>
       <c r="Q39" s="29" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="R39" s="28"/>
       <c r="S39" s="28"/>
@@ -9835,24 +9754,22 @@
         <f>'LESSONS (Android)'!J39</f>
         <v>一覧から「職業」を一つ選択</v>
       </c>
-      <c r="K40" s="66">
-        <v>44053</v>
-      </c>
+      <c r="K40" s="66"/>
       <c r="L40" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K39,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M40" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N40" s="26">
+        <v/>
+      </c>
+      <c r="N40" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P40" s="28"/>
       <c r="Q40" s="29" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="R40" s="28"/>
       <c r="S40" s="28"/>
@@ -9894,24 +9811,22 @@
         <f>'LESSONS (Android)'!J40</f>
         <v>「職業」に応じた「パラメータ」の自動生成</v>
       </c>
-      <c r="K41" s="66">
-        <v>44058</v>
-      </c>
+      <c r="K41" s="66"/>
       <c r="L41" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K40,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M41" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N41" s="26">
+        <v/>
+      </c>
+      <c r="N41" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P41" s="28"/>
       <c r="Q41" s="29" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="R41" s="28"/>
       <c r="S41" s="28"/>
@@ -9953,24 +9868,22 @@
         <f>'LESSONS (Android)'!J41</f>
         <v>〔キャラクターテーブル〕にデータを追加</v>
       </c>
-      <c r="K42" s="66">
-        <v>44067</v>
-      </c>
+      <c r="K42" s="66"/>
       <c r="L42" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K41,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M42" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N42" s="26">
+        <v/>
+      </c>
+      <c r="N42" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P42" s="28"/>
       <c r="Q42" s="29" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="R42" s="28"/>
       <c r="S42" s="28"/>
@@ -10012,20 +9925,18 @@
         <f>'LESSONS (Android)'!J42</f>
         <v>【キャラクター作成完了画面】に遷移</v>
       </c>
-      <c r="K43" s="66">
-        <v>44067</v>
-      </c>
+      <c r="K43" s="66"/>
       <c r="L43" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K42,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M43" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N43" s="26">
+        <v/>
+      </c>
+      <c r="N43" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P43" s="28"/>
       <c r="Q43" s="29" t="s">
@@ -10071,20 +9982,18 @@
         <f>'LESSONS (Android)'!J43</f>
         <v>画面ファイルの作成</v>
       </c>
-      <c r="K44" s="66">
-        <v>44086</v>
-      </c>
+      <c r="K44" s="66"/>
       <c r="L44" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K43,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M44" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N44" s="26">
+        <v/>
+      </c>
+      <c r="N44" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P44" s="28"/>
       <c r="Q44" s="28"/>
@@ -10128,20 +10037,18 @@
         <f>'LESSONS (Android)'!J44</f>
         <v>〔キャラクターテーブル〕から取得したデータを表示</v>
       </c>
-      <c r="K45" s="66">
-        <v>44096</v>
-      </c>
+      <c r="K45" s="66"/>
       <c r="L45" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K44,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M45" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N45" s="26">
+        <v/>
+      </c>
+      <c r="N45" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="46" spans="3:23" x14ac:dyDescent="0.4">
@@ -10177,20 +10084,18 @@
         <f>'LESSONS (Android)'!J45</f>
         <v>【キャラクター作成画面】に遷移</v>
       </c>
-      <c r="K46" s="66">
-        <v>44103</v>
-      </c>
+      <c r="K46" s="66"/>
       <c r="L46" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K45,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M46" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N46" s="26">
+        <v/>
+      </c>
+      <c r="N46" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="47" spans="3:23" x14ac:dyDescent="0.4">
@@ -10226,20 +10131,18 @@
         <f>'LESSONS (Android)'!J46</f>
         <v>キャラクター最大数チェックによるエラー表示</v>
       </c>
-      <c r="K47" s="66">
-        <v>44111</v>
-      </c>
+      <c r="K47" s="66"/>
       <c r="L47" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K46,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="M47" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N47" s="26">
+        <v/>
+      </c>
+      <c r="N47" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v/>
       </c>
     </row>
     <row r="48" spans="3:23" x14ac:dyDescent="0.4">
@@ -10275,20 +10178,18 @@
         <f>'LESSONS (Android)'!J47</f>
         <v>【キャラクター一覧画面】に遷移</v>
       </c>
-      <c r="K48" s="66">
-        <v>44119</v>
-      </c>
+      <c r="K48" s="66"/>
       <c r="L48" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K47,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M48" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N48" s="26">
+        <v/>
+      </c>
+      <c r="N48" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="49" spans="3:14" x14ac:dyDescent="0.4">
@@ -10324,20 +10225,18 @@
         <f>'LESSONS (Android)'!J48</f>
         <v>画面ファイルの作成</v>
       </c>
-      <c r="K49" s="66">
-        <v>44119</v>
-      </c>
+      <c r="K49" s="66"/>
       <c r="L49" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K48,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M49" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N49" s="26">
+        <v/>
+      </c>
+      <c r="N49" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="50" spans="3:14" x14ac:dyDescent="0.4">
@@ -10373,20 +10272,18 @@
         <f>'LESSONS (Android)'!J49</f>
         <v>〔キャラクターテーブル〕から取得したデータを表示</v>
       </c>
-      <c r="K50" s="66">
-        <v>44126</v>
-      </c>
+      <c r="K50" s="66"/>
       <c r="L50" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K49,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M50" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N50" s="26">
+        <v/>
+      </c>
+      <c r="N50" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="51" spans="3:14" x14ac:dyDescent="0.4">
@@ -10422,20 +10319,18 @@
         <f>'LESSONS (Android)'!J50</f>
         <v>「キャラクター」を三つ選択</v>
       </c>
-      <c r="K51" s="66">
-        <v>44133</v>
-      </c>
+      <c r="K51" s="66"/>
       <c r="L51" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K50,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="M51" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N51" s="26">
+        <v/>
+      </c>
+      <c r="N51" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v/>
       </c>
     </row>
     <row r="52" spans="3:14" x14ac:dyDescent="0.4">
@@ -10471,20 +10366,18 @@
         <f>'LESSONS (Android)'!J51</f>
         <v>最大選択数チェックによるエラー表示</v>
       </c>
-      <c r="K52" s="66">
-        <v>44143</v>
-      </c>
+      <c r="K52" s="66"/>
       <c r="L52" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K51,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M52" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N52" s="26">
+        <v/>
+      </c>
+      <c r="N52" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="53" spans="3:14" x14ac:dyDescent="0.4">
@@ -10520,20 +10413,18 @@
         <f>'LESSONS (Android)'!J52</f>
         <v>【バトル開始画面】に遷移</v>
       </c>
-      <c r="K53" s="66">
-        <v>44143</v>
-      </c>
+      <c r="K53" s="66"/>
       <c r="L53" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K52,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M53" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N53" s="26">
+        <v/>
+      </c>
+      <c r="N53" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="54" spans="3:14" x14ac:dyDescent="0.4">
@@ -10569,20 +10460,18 @@
         <f>'LESSONS (Android)'!J53</f>
         <v>選択数に応じたボタン文言の変更</v>
       </c>
-      <c r="K54" s="66">
-        <v>44151</v>
-      </c>
+      <c r="K54" s="66"/>
       <c r="L54" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K53,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="M54" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N54" s="26">
+        <v/>
+      </c>
+      <c r="N54" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v/>
       </c>
     </row>
     <row r="55" spans="3:14" x14ac:dyDescent="0.4">
@@ -10618,20 +10507,18 @@
         <f>'LESSONS (Android)'!J54</f>
         <v>選択数に応じたボタンの有効/無効切り替え</v>
       </c>
-      <c r="K55" s="66">
-        <v>44159</v>
-      </c>
+      <c r="K55" s="66"/>
       <c r="L55" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K54,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="M55" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N55" s="26">
+        <v/>
+      </c>
+      <c r="N55" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v/>
       </c>
     </row>
     <row r="56" spans="3:14" x14ac:dyDescent="0.4">
@@ -10667,20 +10554,18 @@
         <f>'LESSONS (Android)'!J55</f>
         <v>画面ファイルの作成</v>
       </c>
-      <c r="K56" s="66">
-        <v>44175</v>
-      </c>
+      <c r="K56" s="66"/>
       <c r="L56" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K55,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M56" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N56" s="26">
+        <v/>
+      </c>
+      <c r="N56" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="57" spans="3:14" x14ac:dyDescent="0.4">
@@ -10716,20 +10601,18 @@
         <f>'LESSONS (Android)'!J56</f>
         <v>敵パーティーをランダムな名称とジョブで作成</v>
       </c>
-      <c r="K57" s="66">
-        <v>44184</v>
-      </c>
+      <c r="K57" s="66"/>
       <c r="L57" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K56,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="M57" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N57" s="26">
+        <v/>
+      </c>
+      <c r="N57" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v/>
       </c>
     </row>
     <row r="58" spans="3:14" x14ac:dyDescent="0.4">
@@ -10765,20 +10648,18 @@
         <f>'LESSONS (Android)'!J57</f>
         <v>敵パーティー情報を表示</v>
       </c>
-      <c r="K58" s="66">
-        <v>44192</v>
-      </c>
+      <c r="K58" s="66"/>
       <c r="L58" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K57,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M58" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N58" s="26">
+        <v/>
+      </c>
+      <c r="N58" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="59" spans="3:14" x14ac:dyDescent="0.4">
@@ -10814,20 +10695,18 @@
         <f>'LESSONS (Android)'!J58</f>
         <v>自パーティー情報を表示</v>
       </c>
-      <c r="K59" s="66">
-        <v>44192</v>
-      </c>
+      <c r="K59" s="66"/>
       <c r="L59" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K58,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M59" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N59" s="26">
+        <v/>
+      </c>
+      <c r="N59" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="60" spans="3:14" x14ac:dyDescent="0.4">
@@ -10863,20 +10742,18 @@
         <f>'LESSONS (Android)'!J59</f>
         <v>【バトルメイン画面】に遷移</v>
       </c>
-      <c r="K60" s="66">
-        <v>44202</v>
-      </c>
+      <c r="K60" s="66"/>
       <c r="L60" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K59,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M60" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N60" s="26">
+        <v/>
+      </c>
+      <c r="N60" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="61" spans="3:14" x14ac:dyDescent="0.4">
@@ -10912,20 +10789,18 @@
         <f>'LESSONS (Android)'!J60</f>
         <v>敵パーティーを再作成し、画面表示を更新</v>
       </c>
-      <c r="K61" s="66">
-        <v>44211</v>
-      </c>
+      <c r="K61" s="66"/>
       <c r="L61" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K60,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="M61" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N61" s="26">
+        <v/>
+      </c>
+      <c r="N61" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v/>
       </c>
     </row>
     <row r="62" spans="3:14" x14ac:dyDescent="0.4">
@@ -10961,20 +10836,18 @@
         <f>'LESSONS (Android)'!J61</f>
         <v>画面ファイルの作成</v>
       </c>
-      <c r="K62" s="66">
-        <v>44218</v>
-      </c>
+      <c r="K62" s="66"/>
       <c r="L62" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K61,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M62" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N62" s="26">
+        <v/>
+      </c>
+      <c r="N62" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="63" spans="3:14" x14ac:dyDescent="0.4">
@@ -11010,20 +10883,18 @@
         <f>'LESSONS (Android)'!J62</f>
         <v>各パーティーメンバーのステータスを表示</v>
       </c>
-      <c r="K63" s="66">
-        <v>44225</v>
-      </c>
+      <c r="K63" s="66"/>
       <c r="L63" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K62,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M63" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N63" s="26">
+        <v/>
+      </c>
+      <c r="N63" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="64" spans="3:14" x14ac:dyDescent="0.4">
@@ -11059,20 +10930,18 @@
         <f>'LESSONS (Android)'!J63</f>
         <v>選択中の「作戦」を表示（画面起動時の初期作戦選択を含む）</v>
       </c>
-      <c r="K64" s="66">
-        <v>44232</v>
-      </c>
+      <c r="K64" s="66"/>
       <c r="L64" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K63,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M64" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N64" s="26">
+        <v/>
+      </c>
+      <c r="N64" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="65" spans="3:14" x14ac:dyDescent="0.4">
@@ -11108,20 +10977,18 @@
         <f>'LESSONS (Android)'!J64</f>
         <v>【作戦変更画面】に遷移</v>
       </c>
-      <c r="K65" s="66">
-        <v>44239</v>
-      </c>
+      <c r="K65" s="66"/>
       <c r="L65" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K64,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M65" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N65" s="26">
+        <v/>
+      </c>
+      <c r="N65" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="66" spans="3:14" x14ac:dyDescent="0.4">
@@ -11157,20 +11024,18 @@
         <f>'LESSONS (Android)'!J65</f>
         <v>「バトルログ」を表示</v>
       </c>
-      <c r="K66" s="66">
-        <v>44253</v>
-      </c>
+      <c r="K66" s="66"/>
       <c r="L66" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K65,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M66" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N66" s="26">
+        <v/>
+      </c>
+      <c r="N66" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v/>
       </c>
     </row>
     <row r="67" spans="3:14" x14ac:dyDescent="0.4">
@@ -11206,20 +11071,18 @@
         <f>'LESSONS (Android)'!J66</f>
         <v>１ターン分、「戦闘」を進める</v>
       </c>
-      <c r="K67" s="66">
-        <v>44259</v>
-      </c>
+      <c r="K67" s="66"/>
       <c r="L67" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K66,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M67" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N67" s="26">
+        <v/>
+      </c>
+      <c r="N67" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="68" spans="3:14" x14ac:dyDescent="0.4">
@@ -11255,20 +11118,18 @@
         <f>'LESSONS (Android)'!J67</f>
         <v>「バトルログ」の更新</v>
       </c>
-      <c r="K68" s="66">
-        <v>44270</v>
-      </c>
+      <c r="K68" s="66"/>
       <c r="L68" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K67,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M68" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N68" s="26">
+        <v/>
+      </c>
+      <c r="N68" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="69" spans="3:14" x14ac:dyDescent="0.4">
@@ -11304,20 +11165,18 @@
         <f>'LESSONS (Android)'!J68</f>
         <v>勝敗判定チェック</v>
       </c>
-      <c r="K69" s="66">
-        <v>44277</v>
-      </c>
+      <c r="K69" s="66"/>
       <c r="L69" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K68,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="M69" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N69" s="26">
+        <v/>
+      </c>
+      <c r="N69" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v/>
       </c>
     </row>
     <row r="70" spans="3:14" x14ac:dyDescent="0.4">
@@ -11353,20 +11212,18 @@
         <f>'LESSONS (Android)'!J69</f>
         <v>画面ファイルの作成</v>
       </c>
-      <c r="K70" s="66">
-        <v>44283</v>
-      </c>
+      <c r="K70" s="66"/>
       <c r="L70" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K69,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M70" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N70" s="26">
+        <v/>
+      </c>
+      <c r="N70" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="71" spans="3:14" x14ac:dyDescent="0.4">
@@ -11402,20 +11259,18 @@
         <f>'LESSONS (Android)'!J70</f>
         <v>作戦一覧を表示</v>
       </c>
-      <c r="K71" s="66">
-        <v>44291</v>
-      </c>
+      <c r="K71" s="66"/>
       <c r="L71" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K70,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M71" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N71" s="26">
+        <v/>
+      </c>
+      <c r="N71" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="72" spans="3:14" x14ac:dyDescent="0.4">
@@ -11451,20 +11306,18 @@
         <f>'LESSONS (Android)'!J71</f>
         <v>選択された作戦に変更</v>
       </c>
-      <c r="K72" s="66">
-        <v>44302</v>
-      </c>
+      <c r="K72" s="66"/>
       <c r="L72" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K71,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="M72" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N72" s="26">
+        <v/>
+      </c>
+      <c r="N72" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v/>
       </c>
     </row>
     <row r="73" spans="3:14" x14ac:dyDescent="0.4">
@@ -11500,20 +11353,18 @@
         <f>'LESSONS (Android)'!J72</f>
         <v>【バトルメイン画面】に遷移</v>
       </c>
-      <c r="K73" s="66">
-        <v>44623</v>
-      </c>
+      <c r="K73" s="66"/>
       <c r="L73" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K72,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M73" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N73" s="26">
+        <v/>
+      </c>
+      <c r="N73" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="74" spans="3:14" x14ac:dyDescent="0.4">
@@ -11549,20 +11400,18 @@
         <f>'LESSONS (Android)'!J73</f>
         <v>画面ファイルの作成</v>
       </c>
-      <c r="K74" s="66">
-        <v>44598</v>
-      </c>
+      <c r="K74" s="66"/>
       <c r="L74" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K73,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M74" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N74" s="26">
+        <v/>
+      </c>
+      <c r="N74" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="75" spans="3:14" x14ac:dyDescent="0.4">
@@ -11598,20 +11447,18 @@
         <f>'LESSONS (Android)'!J74</f>
         <v>各パーティーメンバーのステータスを表示</v>
       </c>
-      <c r="K75" s="66">
-        <v>44627</v>
-      </c>
+      <c r="K75" s="66"/>
       <c r="L75" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K74,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M75" s="27" t="str">
         <f t="shared" ref="M75:M88" si="2">IF(K75&lt;&gt;"","●","")</f>
-        <v>●</v>
-      </c>
-      <c r="N75" s="26">
+        <v/>
+      </c>
+      <c r="N75" s="26" t="str">
         <f t="shared" ref="N75:N88" si="3">IF(M75="●",L75,"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="76" spans="3:14" x14ac:dyDescent="0.4">
@@ -11647,20 +11494,18 @@
         <f>'LESSONS (Android)'!J75</f>
         <v>勝敗に応じた勝敗情報を表示</v>
       </c>
-      <c r="K76" s="66">
-        <v>44607</v>
-      </c>
+      <c r="K76" s="66"/>
       <c r="L76" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K75,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="M76" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>●</v>
-      </c>
-      <c r="N76" s="26">
+        <v/>
+      </c>
+      <c r="N76" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v/>
       </c>
     </row>
     <row r="77" spans="3:14" x14ac:dyDescent="0.4">
@@ -11696,20 +11541,18 @@
         <f>'LESSONS (Android)'!J76</f>
         <v>【バトルメイン画面】に遷移（同じ敵パーティーと再戦）</v>
       </c>
-      <c r="K77" s="66">
-        <v>44634</v>
-      </c>
+      <c r="K77" s="66"/>
       <c r="L77" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K76,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M77" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>●</v>
-      </c>
-      <c r="N77" s="26">
+        <v/>
+      </c>
+      <c r="N77" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="78" spans="3:14" x14ac:dyDescent="0.4">
@@ -11745,20 +11588,18 @@
         <f>'LESSONS (Android)'!J77</f>
         <v>【バトル開始画面】に遷移</v>
       </c>
-      <c r="K78" s="66">
-        <v>44613</v>
-      </c>
+      <c r="K78" s="66"/>
       <c r="L78" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K77,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M78" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>●</v>
-      </c>
-      <c r="N78" s="26">
+        <v/>
+      </c>
+      <c r="N78" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="79" spans="3:14" x14ac:dyDescent="0.4">
@@ -11794,20 +11635,18 @@
         <f>'LESSONS (Android)'!J78</f>
         <v>【トップ画面】に遷移</v>
       </c>
-      <c r="K79" s="66">
-        <v>44620</v>
-      </c>
+      <c r="K79" s="66"/>
       <c r="L79" s="26">
         <f>VLOOKUP('LESSONS (Android)'!K78,MAN_HOURS!$C$9:$E$234,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M79" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>●</v>
-      </c>
-      <c r="N79" s="26">
+        <v/>
+      </c>
+      <c r="N79" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="80" spans="3:14" x14ac:dyDescent="0.4">
@@ -12239,7 +12078,7 @@
     <row r="90" spans="3:15" x14ac:dyDescent="0.4">
       <c r="K90" s="66"/>
       <c r="L90" s="67" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="M90" s="68"/>
       <c r="N90" s="68"/>
@@ -12251,33 +12090,33 @@
     <row r="91" spans="3:15" x14ac:dyDescent="0.4">
       <c r="K91" s="66"/>
       <c r="L91" s="70" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="O91" s="71">
-        <f>SUM(N11:N89)</f>
-        <v>97</v>
+        <f>SUM(N10:N89)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="3:15" x14ac:dyDescent="0.4">
       <c r="K92" s="66"/>
       <c r="L92" s="70" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="O92" s="72">
         <f>O91/O90</f>
-        <v>0.48499999999999999</v>
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
     <row r="93" spans="3:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="K93" s="66"/>
       <c r="L93" s="73" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="M93" s="74"/>
       <c r="N93" s="74"/>
       <c r="O93" s="75">
         <f>SUM(O10:O88)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="3:15" x14ac:dyDescent="0.4">
@@ -12480,10 +12319,10 @@
   <dimension ref="B2:W156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K9" sqref="K9"/>
+      <selection pane="bottomRight" activeCell="K117" sqref="K117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -12511,7 +12350,7 @@
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B3" s="13" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="7" spans="2:23" ht="24" hidden="1" x14ac:dyDescent="0.4">
@@ -12607,7 +12446,7 @@
         <v>262</v>
       </c>
       <c r="K9" s="49" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="L9" s="50" t="s">
         <v>245</v>
@@ -12616,10 +12455,10 @@
         <v>694</v>
       </c>
       <c r="N9" s="60" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="O9" s="60" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.4">
@@ -12714,20 +12553,18 @@
         <f>'LESSONS (Web アプリ)'!J10</f>
         <v>② Git 実習環境の構築</v>
       </c>
-      <c r="K11" s="66">
-        <v>44676</v>
-      </c>
+      <c r="K11" s="66"/>
       <c r="L11" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K10,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M11" s="27" t="str">
         <f t="shared" ref="M11:M74" si="0">IF(K11&lt;&gt;"","●","")</f>
-        <v>●</v>
-      </c>
-      <c r="N11" s="26">
+        <v/>
+      </c>
+      <c r="N11" s="26" t="str">
         <f t="shared" ref="N11:N74" si="1">IF(M11="●",L11,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P11" s="28"/>
       <c r="Q11" s="29" t="s">
@@ -12774,20 +12611,18 @@
         <f>'LESSONS (Web アプリ)'!J11</f>
         <v>ローカル開発</v>
       </c>
-      <c r="K12" s="66">
-        <v>44681</v>
-      </c>
+      <c r="K12" s="66"/>
       <c r="L12" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K11,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M12" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N12" s="26">
+        <v/>
+      </c>
+      <c r="N12" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P12" s="28"/>
       <c r="Q12" s="29" t="s">
@@ -12834,20 +12669,18 @@
         <f>'LESSONS (Web アプリ)'!J12</f>
         <v>GitHub での共同開発.パターン01</v>
       </c>
-      <c r="K13" s="66">
-        <v>44681</v>
-      </c>
+      <c r="K13" s="66"/>
       <c r="L13" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K12,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M13" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N13" s="26">
+        <v/>
+      </c>
+      <c r="N13" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P13" s="28"/>
       <c r="Q13" s="29" t="s">
@@ -12893,20 +12726,18 @@
         <f>'LESSONS (Web アプリ)'!J13</f>
         <v>GitHub での共同開発.パターン02</v>
       </c>
-      <c r="K14" s="66">
-        <v>44684</v>
-      </c>
+      <c r="K14" s="66"/>
       <c r="L14" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K13,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M14" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N14" s="26">
+        <v/>
+      </c>
+      <c r="N14" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P14" s="28"/>
       <c r="Q14" s="29" t="s">
@@ -12952,20 +12783,18 @@
         <f>'LESSONS (Web アプリ)'!J14</f>
         <v>コンフリクトの解消</v>
       </c>
-      <c r="K15" s="66">
-        <v>44691</v>
-      </c>
+      <c r="K15" s="66"/>
       <c r="L15" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K14,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M15" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N15" s="26">
+        <v/>
+      </c>
+      <c r="N15" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P15" s="28"/>
       <c r="Q15" s="29" t="s">
@@ -13011,20 +12840,18 @@
         <f>'LESSONS (Web アプリ)'!J15</f>
         <v>ベアリポジトリの作成と利用</v>
       </c>
-      <c r="K16" s="66">
-        <v>44697</v>
-      </c>
+      <c r="K16" s="66"/>
       <c r="L16" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K15,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M16" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N16" s="26">
+        <v/>
+      </c>
+      <c r="N16" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P16" s="28"/>
       <c r="Q16" s="29" t="s">
@@ -13070,20 +12897,18 @@
         <f>'LESSONS (Web アプリ)'!J16</f>
         <v>発展編： Git Crash Course</v>
       </c>
-      <c r="K17" s="66">
-        <v>44704</v>
-      </c>
+      <c r="K17" s="66"/>
       <c r="L17" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K16,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="M17" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N17" s="26">
+        <v/>
+      </c>
+      <c r="N17" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="P17" s="28"/>
       <c r="Q17" s="29" t="s">
@@ -13129,20 +12954,18 @@
         <f>'LESSONS (Web アプリ)'!J17</f>
         <v>問題.01</v>
       </c>
-      <c r="K18" s="66">
-        <v>44706</v>
-      </c>
+      <c r="K18" s="66"/>
       <c r="L18" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K17,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>0.5</v>
       </c>
       <c r="M18" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N18" s="26">
+        <v/>
+      </c>
+      <c r="N18" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v/>
       </c>
       <c r="P18" s="28"/>
       <c r="Q18" s="29" t="s">
@@ -13188,20 +13011,18 @@
         <f>'LESSONS (Web アプリ)'!J18</f>
         <v>問題.02</v>
       </c>
-      <c r="K19" s="66">
-        <v>44706</v>
-      </c>
+      <c r="K19" s="66"/>
       <c r="L19" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K18,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M19" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N19" s="26">
+        <v/>
+      </c>
+      <c r="N19" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P19" s="28"/>
       <c r="Q19" s="29" t="s">
@@ -13247,20 +13068,18 @@
         <f>'LESSONS (Web アプリ)'!J19</f>
         <v>問題.03</v>
       </c>
-      <c r="K20" s="66">
-        <v>44706</v>
-      </c>
+      <c r="K20" s="66"/>
       <c r="L20" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K19,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>0.5</v>
       </c>
       <c r="M20" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N20" s="26">
+        <v/>
+      </c>
+      <c r="N20" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v/>
       </c>
       <c r="P20" s="28"/>
       <c r="Q20" s="29" t="s">
@@ -13306,20 +13125,18 @@
         <f>'LESSONS (Web アプリ)'!J20</f>
         <v>① HTML の基礎学習</v>
       </c>
-      <c r="K21" s="66">
-        <v>44711</v>
-      </c>
+      <c r="K21" s="66"/>
       <c r="L21" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K20,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M21" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N21" s="26">
+        <v/>
+      </c>
+      <c r="N21" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P21" s="28"/>
       <c r="Q21" s="29" t="s">
@@ -13365,20 +13182,18 @@
         <f>'LESSONS (Web アプリ)'!J21</f>
         <v>② HTML / CSS を書くための環境構築</v>
       </c>
-      <c r="K22" s="66">
-        <v>44716</v>
-      </c>
+      <c r="K22" s="66"/>
       <c r="L22" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K21,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M22" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N22" s="26">
+        <v/>
+      </c>
+      <c r="N22" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P22" s="28"/>
       <c r="Q22" s="29" t="s">
@@ -13424,20 +13239,18 @@
         <f>'LESSONS (Web アプリ)'!J22</f>
         <v>実習.01 HTML5 でレイアウトを作成する</v>
       </c>
-      <c r="K23" s="66">
-        <v>44721</v>
-      </c>
+      <c r="K23" s="66"/>
       <c r="L23" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K22,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M23" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N23" s="26">
+        <v/>
+      </c>
+      <c r="N23" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P23" s="28"/>
       <c r="Q23" s="29" t="s">
@@ -13483,20 +13296,18 @@
         <f>'LESSONS (Web アプリ)'!J23</f>
         <v>実習.02 HTML で表を作成する</v>
       </c>
-      <c r="K24" s="66">
-        <v>44726</v>
-      </c>
+      <c r="K24" s="66"/>
       <c r="L24" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K23,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M24" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N24" s="26">
+        <v/>
+      </c>
+      <c r="N24" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v/>
       </c>
       <c r="P24" s="28"/>
       <c r="Q24" s="29" t="s">
@@ -13542,20 +13353,18 @@
         <f>'LESSONS (Web アプリ)'!J24</f>
         <v>実習.03 HTML でフォームを作成する</v>
       </c>
-      <c r="K25" s="66">
-        <v>44731</v>
-      </c>
+      <c r="K25" s="66"/>
       <c r="L25" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K24,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M25" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N25" s="26">
+        <v/>
+      </c>
+      <c r="N25" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v/>
       </c>
       <c r="P25" s="28"/>
       <c r="Q25" s="29" t="s">
@@ -13601,20 +13410,18 @@
         <f>'LESSONS (Web アプリ)'!J25</f>
         <v>課題 HTML5 によるマークアップ</v>
       </c>
-      <c r="K26" s="66">
-        <v>44736</v>
-      </c>
+      <c r="K26" s="66"/>
       <c r="L26" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K25,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="M26" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N26" s="26">
+        <v/>
+      </c>
+      <c r="N26" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="P26" s="28"/>
       <c r="Q26" s="29" t="s">
@@ -13660,20 +13467,18 @@
         <f>'LESSONS (Web アプリ)'!J26</f>
         <v>① CSS の基礎学習</v>
       </c>
-      <c r="K27" s="66">
-        <v>44741</v>
-      </c>
+      <c r="K27" s="66"/>
       <c r="L27" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K26,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M27" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N27" s="26">
+        <v/>
+      </c>
+      <c r="N27" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P27" s="28"/>
       <c r="Q27" s="29" t="s">
@@ -13719,20 +13524,18 @@
         <f>'LESSONS (Web アプリ)'!J27</f>
         <v>実習.01 ページレイアウトの基本設計</v>
       </c>
-      <c r="K28" s="66">
-        <v>44747</v>
-      </c>
+      <c r="K28" s="66"/>
       <c r="L28" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K27,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="M28" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N28" s="26">
+        <v/>
+      </c>
+      <c r="N28" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="P28" s="28"/>
       <c r="Q28" s="29" t="s">
@@ -13778,20 +13581,18 @@
         <f>'LESSONS (Web アプリ)'!J28</f>
         <v>実習.02 3カラムレイアウトの作成</v>
       </c>
-      <c r="K29" s="66">
-        <v>44753</v>
-      </c>
+      <c r="K29" s="66"/>
       <c r="L29" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K28,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="M29" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N29" s="26">
+        <v/>
+      </c>
+      <c r="N29" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="P29" s="28"/>
       <c r="Q29" s="29" t="s">
@@ -13837,20 +13638,18 @@
         <f>'LESSONS (Web アプリ)'!J29</f>
         <v>HTML と CSS ファイルのコーディング</v>
       </c>
-      <c r="K30" s="66">
-        <v>44759</v>
-      </c>
+      <c r="K30" s="66"/>
       <c r="L30" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K29,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>5</v>
       </c>
       <c r="M30" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N30" s="26">
+        <v/>
+      </c>
+      <c r="N30" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v/>
       </c>
       <c r="P30" s="28"/>
       <c r="Q30" s="29" t="s">
@@ -13896,20 +13695,18 @@
         <f>'LESSONS (Web アプリ)'!J30</f>
         <v>① JavaScript の基礎学習</v>
       </c>
-      <c r="K31" s="66">
-        <v>44765</v>
-      </c>
+      <c r="K31" s="66"/>
       <c r="L31" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K30,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M31" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N31" s="26">
+        <v/>
+      </c>
+      <c r="N31" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P31" s="28"/>
       <c r="Q31" s="29" t="s">
@@ -13955,20 +13752,18 @@
         <f>'LESSONS (Web アプリ)'!J31</f>
         <v>② JavaScript 開発環境の構築</v>
       </c>
-      <c r="K32" s="66">
-        <v>44771</v>
-      </c>
+      <c r="K32" s="66"/>
       <c r="L32" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K31,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M32" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N32" s="26">
+        <v/>
+      </c>
+      <c r="N32" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P32" s="28"/>
       <c r="Q32" s="29" t="s">
@@ -14014,20 +13809,18 @@
         <f>'LESSONS (Web アプリ)'!J32</f>
         <v>文字列と数値 / 変数・定数 / 条件分岐</v>
       </c>
-      <c r="K33" s="66">
-        <v>44777</v>
-      </c>
+      <c r="K33" s="66"/>
       <c r="L33" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K32,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M33" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N33" s="26">
+        <v/>
+      </c>
+      <c r="N33" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P33" s="28"/>
       <c r="Q33" s="29" t="s">
@@ -14073,20 +13866,18 @@
         <f>'LESSONS (Web アプリ)'!J33</f>
         <v>繰り返し処理 / 配列 / オブジェクト / undefined / 総合演習</v>
       </c>
-      <c r="K34" s="66">
-        <v>44783</v>
-      </c>
+      <c r="K34" s="66"/>
       <c r="L34" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K33,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="M34" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N34" s="26">
+        <v/>
+      </c>
+      <c r="N34" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="P34" s="28"/>
       <c r="Q34" s="29" t="s">
@@ -14132,20 +13923,18 @@
         <f>'LESSONS (Web アプリ)'!J34</f>
         <v>関数を学ぼう</v>
       </c>
-      <c r="K35" s="66">
-        <v>44789</v>
-      </c>
+      <c r="K35" s="66"/>
       <c r="L35" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K34,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M35" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N35" s="26">
+        <v/>
+      </c>
+      <c r="N35" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P35" s="28"/>
       <c r="Q35" s="29" t="s">
@@ -14191,24 +13980,22 @@
         <f>'LESSONS (Web アプリ)'!J35</f>
         <v>クラスの基本 / クラスの継承</v>
       </c>
-      <c r="K36" s="66">
-        <v>44795</v>
-      </c>
+      <c r="K36" s="66"/>
       <c r="L36" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K35,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="M36" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N36" s="26">
+        <v/>
+      </c>
+      <c r="N36" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="P36" s="28"/>
       <c r="Q36" s="29" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="R36" s="28"/>
       <c r="S36" s="28"/>
@@ -14250,24 +14037,22 @@
         <f>'LESSONS (Web アプリ)'!J36</f>
         <v>ファイルを分割しよう / パッケージを使おう</v>
       </c>
-      <c r="K37" s="66">
-        <v>44801</v>
-      </c>
+      <c r="K37" s="66"/>
       <c r="L37" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K36,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M37" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N37" s="26">
+        <v/>
+      </c>
+      <c r="N37" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P37" s="28"/>
       <c r="Q37" s="29" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="R37" s="28"/>
       <c r="S37" s="28"/>
@@ -14309,20 +14094,18 @@
         <f>'LESSONS (Web アプリ)'!J37</f>
         <v xml:space="preserve">配列を操作するメソッドを学ぼう </v>
       </c>
-      <c r="K38" s="66">
-        <v>44807</v>
-      </c>
+      <c r="K38" s="66"/>
       <c r="L38" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K37,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M38" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N38" s="26">
+        <v/>
+      </c>
+      <c r="N38" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P38" s="28"/>
       <c r="Q38" s="29" t="s">
@@ -14368,24 +14151,22 @@
         <f>'LESSONS (Web アプリ)'!J38</f>
         <v>コールバック関数を学ぼう</v>
       </c>
-      <c r="K39" s="66">
-        <v>44807</v>
-      </c>
+      <c r="K39" s="66"/>
       <c r="L39" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K38,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="M39" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N39" s="26">
+        <v/>
+      </c>
+      <c r="N39" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="P39" s="28"/>
       <c r="Q39" s="29" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="R39" s="28"/>
       <c r="S39" s="28"/>
@@ -14427,24 +14208,22 @@
         <f>'LESSONS (Web アプリ)'!J39</f>
         <v>数字当てゲームを動かしてみる</v>
       </c>
-      <c r="K40" s="66">
-        <v>44813</v>
-      </c>
+      <c r="K40" s="66"/>
       <c r="L40" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K39,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M40" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N40" s="26">
+        <v/>
+      </c>
+      <c r="N40" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P40" s="28"/>
       <c r="Q40" s="29" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="R40" s="28"/>
       <c r="S40" s="28"/>
@@ -14486,24 +14265,22 @@
         <f>'LESSONS (Web アプリ)'!J40</f>
         <v>課題.01 買い物リストプログラムの作成</v>
       </c>
-      <c r="K41" s="66">
-        <v>44813</v>
-      </c>
+      <c r="K41" s="66"/>
       <c r="L41" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K40,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>3</v>
       </c>
       <c r="M41" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N41" s="26">
+        <v/>
+      </c>
+      <c r="N41" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v/>
       </c>
       <c r="P41" s="28"/>
       <c r="Q41" s="29" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="R41" s="28"/>
       <c r="S41" s="28"/>
@@ -14545,24 +14322,22 @@
         <f>'LESSONS (Web アプリ)'!J41</f>
         <v>課題.02 ブロック崩しゲームの作成</v>
       </c>
-      <c r="K42" s="66">
-        <v>44838</v>
-      </c>
+      <c r="K42" s="66"/>
       <c r="L42" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K41,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="M42" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N42" s="26">
+        <v/>
+      </c>
+      <c r="N42" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="P42" s="28"/>
       <c r="Q42" s="29" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="R42" s="28"/>
       <c r="S42" s="28"/>
@@ -14604,20 +14379,18 @@
         <f>'LESSONS (Web アプリ)'!J42</f>
         <v>① jQuery の基礎学習</v>
       </c>
-      <c r="K43" s="66">
-        <v>44844</v>
-      </c>
+      <c r="K43" s="66"/>
       <c r="L43" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K42,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="M43" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N43" s="26">
+        <v/>
+      </c>
+      <c r="N43" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="P43" s="28"/>
       <c r="Q43" s="29" t="s">
@@ -14663,20 +14436,18 @@
         <f>'LESSONS (Web アプリ)'!J43</f>
         <v>01. jQuery問題集レベル１：30問</v>
       </c>
-      <c r="K44" s="66">
-        <v>44850</v>
-      </c>
+      <c r="K44" s="66"/>
       <c r="L44" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K43,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="M44" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N44" s="26">
+        <v/>
+      </c>
+      <c r="N44" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v/>
       </c>
       <c r="P44" s="28"/>
       <c r="Q44" s="28"/>
@@ -14720,20 +14491,18 @@
         <f>'LESSONS (Web アプリ)'!J44</f>
         <v>02. jQuery問題集レベル２：10問</v>
       </c>
-      <c r="K45" s="66">
-        <v>44856</v>
-      </c>
+      <c r="K45" s="66"/>
       <c r="L45" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K44,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="M45" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N45" s="26">
+        <v/>
+      </c>
+      <c r="N45" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v/>
       </c>
     </row>
     <row r="46" spans="3:23" x14ac:dyDescent="0.4">
@@ -14769,20 +14538,18 @@
         <f>'LESSONS (Web アプリ)'!J45</f>
         <v>03. jQuery問題集レベル３：10問</v>
       </c>
-      <c r="K46" s="66">
-        <v>44862</v>
-      </c>
+      <c r="K46" s="66"/>
       <c r="L46" s="26">
         <f>VLOOKUP('LESSONS (Web アプリ)'!K45,MAN_HOURS!$C$9:$E$395,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="M46" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N46" s="26">
+        <v/>
+      </c>
+      <c r="N46" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v/>
       </c>
     </row>
     <row r="47" spans="3:23" x14ac:dyDescent="0.4">
@@ -17658,7 +17425,7 @@
     <row r="109" spans="3:15" x14ac:dyDescent="0.4">
       <c r="K109" s="66"/>
       <c r="L109" s="67" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="M109" s="68"/>
       <c r="N109" s="68"/>
@@ -17670,27 +17437,27 @@
     <row r="110" spans="3:15" x14ac:dyDescent="0.4">
       <c r="K110" s="66"/>
       <c r="L110" s="70" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="O110" s="71">
         <f>SUM(N10:N108)</f>
-        <v>59</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="3:15" x14ac:dyDescent="0.4">
       <c r="K111" s="66"/>
       <c r="L111" s="70" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="O111" s="72">
         <f>O110/O109</f>
-        <v>0.40136054421768708</v>
+        <v>6.8027210884353739E-3</v>
       </c>
     </row>
     <row r="112" spans="3:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="K112" s="66"/>
       <c r="L112" s="73" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="M112" s="74"/>
       <c r="N112" s="74"/>
@@ -17873,7 +17640,7 @@
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B3" s="13" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="K3" s="21"/>
     </row>
@@ -19495,7 +19262,7 @@
       </c>
       <c r="P35" s="28"/>
       <c r="Q35" s="29" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="R35" s="28"/>
       <c r="S35" s="28"/>
@@ -19551,7 +19318,7 @@
       </c>
       <c r="P36" s="28"/>
       <c r="Q36" s="29" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="R36" s="28"/>
       <c r="S36" s="28"/>
@@ -19663,7 +19430,7 @@
       </c>
       <c r="P38" s="28"/>
       <c r="Q38" s="29" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="R38" s="28"/>
       <c r="S38" s="28"/>
@@ -19719,7 +19486,7 @@
       </c>
       <c r="P39" s="28"/>
       <c r="Q39" s="29" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="R39" s="28"/>
       <c r="S39" s="28"/>
@@ -19775,7 +19542,7 @@
       </c>
       <c r="P40" s="28"/>
       <c r="Q40" s="29" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="R40" s="28"/>
       <c r="S40" s="28"/>
@@ -19831,7 +19598,7 @@
       </c>
       <c r="P41" s="28"/>
       <c r="Q41" s="29" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="R41" s="28"/>
       <c r="S41" s="28"/>
@@ -22487,7 +22254,7 @@
     <row r="100" spans="3:14" x14ac:dyDescent="0.4">
       <c r="K100" s="25"/>
       <c r="L100" s="3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="N100" s="26">
         <f>SUM(L9:L98)</f>
@@ -22497,7 +22264,7 @@
     <row r="101" spans="3:14" x14ac:dyDescent="0.4">
       <c r="K101" s="25"/>
       <c r="L101" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="N101" s="26">
         <f>SUM(N9:N98)</f>
@@ -22507,7 +22274,7 @@
     <row r="102" spans="3:14" x14ac:dyDescent="0.4">
       <c r="K102" s="25"/>
       <c r="L102" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="N102" s="30">
         <f>N101/N100</f>
@@ -22684,10 +22451,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B2:Y13"/>
+  <dimension ref="B2:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -22706,180 +22473,164 @@
     <col min="14" max="14" width="9" style="5"/>
     <col min="15" max="16" width="9.25" style="5" customWidth="1"/>
     <col min="17" max="17" width="8.75" style="5" customWidth="1"/>
-    <col min="18" max="18" width="10.375" style="5" customWidth="1"/>
-    <col min="19" max="19" width="10.125" style="5" customWidth="1"/>
-    <col min="20" max="20" width="9" style="5"/>
-    <col min="21" max="22" width="9.25" style="5" customWidth="1"/>
-    <col min="23" max="16384" width="9" style="5"/>
+    <col min="18" max="18" width="9" style="5"/>
+    <col min="19" max="20" width="9.25" style="5" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:25" s="56" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:23" s="56" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B2" s="56" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="3" spans="2:25" s="56" customFormat="1" x14ac:dyDescent="0.4">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="3" spans="2:23" s="56" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B3" s="56" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="4" spans="2:25" ht="17.25" hidden="1" x14ac:dyDescent="0.4">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="4" spans="2:23" ht="17.25" hidden="1" x14ac:dyDescent="0.4">
       <c r="B4" s="5" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="C4" s="82">
         <f>MATCH(MAX(B:B)+1, B:B, 1)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
+    <row r="6" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
       <c r="D6" s="52" t="s">
+        <v>729</v>
+      </c>
+      <c r="E6" s="52"/>
+      <c r="F6" s="91" t="s">
+        <v>730</v>
+      </c>
+      <c r="G6" s="91"/>
+      <c r="H6" s="91"/>
+      <c r="I6" s="91"/>
+      <c r="J6" s="91" t="s">
         <v>731</v>
       </c>
-      <c r="E6" s="52"/>
-      <c r="F6" s="94" t="s">
+      <c r="K6" s="91"/>
+      <c r="L6" s="91"/>
+      <c r="M6" s="91"/>
+      <c r="N6" s="91" t="s">
         <v>732</v>
       </c>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94" t="s">
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="91"/>
+      <c r="R6" s="92" t="s">
         <v>733</v>
       </c>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94" t="s">
+      <c r="S6" s="92"/>
+      <c r="T6" s="92"/>
+      <c r="U6" s="92"/>
+      <c r="V6" s="92"/>
+      <c r="W6" s="93" t="s">
         <v>734</v>
       </c>
-      <c r="O6" s="94"/>
-      <c r="P6" s="94"/>
-      <c r="Q6" s="94"/>
-      <c r="R6" s="91" t="s">
-        <v>758</v>
-      </c>
-      <c r="S6" s="92"/>
-      <c r="T6" s="95" t="s">
-        <v>735</v>
-      </c>
-      <c r="U6" s="95"/>
-      <c r="V6" s="95"/>
-      <c r="W6" s="95"/>
-      <c r="X6" s="95"/>
-      <c r="Y6" s="84" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
       <c r="F7" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="G7" s="87" t="s">
-        <v>737</v>
-      </c>
-      <c r="H7" s="88"/>
+      <c r="G7" s="96" t="s">
+        <v>735</v>
+      </c>
+      <c r="H7" s="97"/>
       <c r="I7" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="K7" s="87" t="s">
-        <v>737</v>
-      </c>
-      <c r="L7" s="88"/>
+      <c r="K7" s="96" t="s">
+        <v>735</v>
+      </c>
+      <c r="L7" s="97"/>
       <c r="M7" s="6" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="O7" s="87" t="s">
-        <v>737</v>
-      </c>
-      <c r="P7" s="88"/>
+      <c r="O7" s="96" t="s">
+        <v>735</v>
+      </c>
+      <c r="P7" s="97"/>
       <c r="Q7" s="6" t="s">
-        <v>738</v>
-      </c>
-      <c r="R7" s="87" t="s">
-        <v>759</v>
-      </c>
-      <c r="S7" s="88"/>
-      <c r="T7" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="R7" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="U7" s="89" t="s">
-        <v>737</v>
-      </c>
-      <c r="V7" s="90"/>
-      <c r="W7" s="6" t="s">
-        <v>738</v>
-      </c>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="85"/>
-    </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.4">
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
+      <c r="S7" s="98" t="s">
+        <v>735</v>
+      </c>
+      <c r="T7" s="99"/>
+      <c r="U7" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="V7" s="6"/>
+      <c r="W7" s="94"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B8" s="90"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="52"/>
       <c r="E8" s="52"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="Q8" s="6"/>
-      <c r="R8" s="6" t="s">
-        <v>739</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>740</v>
-      </c>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12" t="s">
-        <v>739</v>
-      </c>
-      <c r="V8" s="12" t="s">
-        <v>740</v>
-      </c>
-      <c r="W8" s="6" t="s">
-        <v>739</v>
-      </c>
-      <c r="X8" s="6" t="s">
-        <v>740</v>
-      </c>
-      <c r="Y8" s="86"/>
-    </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.4">
+      <c r="R8" s="12"/>
+      <c r="S8" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>738</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="W8" s="95"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B9" s="45">
         <v>2022</v>
       </c>
       <c r="C9" s="45" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D9" s="46">
         <v>43831</v>
@@ -22893,15 +22644,15 @@
       </c>
       <c r="G9" s="47">
         <f>SUMIFS('Java カリキュラム'!$N$10:$N$156,'Java カリキュラム'!$K$10:$K$156,"&gt;="&amp;$D9,'Java カリキュラム'!$K$10:$K$156,"&lt;="&amp;$E9)</f>
-        <v>128.5</v>
+        <v>1</v>
       </c>
       <c r="H9" s="47">
         <f>SUM($G9:G$10)</f>
-        <v>128.5</v>
+        <v>1</v>
       </c>
       <c r="I9" s="48">
         <f>H9/$F$9</f>
-        <v>0.51400000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J9" s="47">
         <f>'Android アプリ'!$O$90</f>
@@ -22909,15 +22660,15 @@
       </c>
       <c r="K9" s="47">
         <f>SUMIFS('Android アプリ'!$N$10:$N$88,'Android アプリ'!$K$10:$K$88,"&gt;="&amp;$D9,'Android アプリ'!$K$10:$K$88,"&lt;="&amp;$E9)</f>
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="L9" s="47">
         <f>SUM($K9:K$10)</f>
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="M9" s="48">
         <f>L9/$J$9</f>
-        <v>0.47499999999999998</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="N9" s="47">
         <f>'Web アプリ'!$O$109</f>
@@ -22925,49 +22676,41 @@
       </c>
       <c r="O9" s="47">
         <f>SUMIFS('Web アプリ'!$N$10:$N$107,'Web アプリ'!$K$10:$K$107,"&gt;="&amp;$D9,'Web アプリ'!$K$10:$K$107,"&lt;="&amp;$E9)</f>
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="P9" s="47">
         <f>SUM($O9:O$10)</f>
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="48">
         <f>P9/$N$9</f>
-        <v>0.40136054421768708</v>
-      </c>
-      <c r="R9" s="47" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S9" s="47" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T9" s="47">
+        <v>6.8027210884353739E-3</v>
+      </c>
+      <c r="R9" s="47">
         <f>$F$9+$J$9+$N$9</f>
         <v>597</v>
       </c>
-      <c r="U9" s="47">
+      <c r="S9" s="47">
         <f>$G9+$K9+$O9</f>
-        <v>282.5</v>
-      </c>
-      <c r="V9" s="47">
-        <f>SUM($U9:U$10)</f>
-        <v>282.5</v>
-      </c>
-      <c r="W9" s="48">
-        <f>U9/$T$9</f>
-        <v>0.47319932998324959</v>
-      </c>
-      <c r="X9" s="48">
-        <f>V9/$T$9</f>
-        <v>0.47319932998324959</v>
-      </c>
-      <c r="Y9" s="45" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.4">
+        <v>3</v>
+      </c>
+      <c r="T9" s="47">
+        <f>SUM($S9:S$10)</f>
+        <v>3</v>
+      </c>
+      <c r="U9" s="48">
+        <f>S9/$R$9</f>
+        <v>5.0251256281407036E-3</v>
+      </c>
+      <c r="V9" s="48">
+        <f>T9/$R$9</f>
+        <v>5.0251256281407036E-3</v>
+      </c>
+      <c r="W9" s="45" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B10" s="7">
         <v>2023</v>
       </c>
@@ -22989,11 +22732,11 @@
       </c>
       <c r="H10" s="9">
         <f>SUM($G$9:G10)</f>
-        <v>128.5</v>
+        <v>1</v>
       </c>
       <c r="I10" s="11">
         <f>H10/$F$9</f>
-        <v>0.51400000000000001</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J10" s="7"/>
       <c r="K10" s="9">
@@ -23002,11 +22745,11 @@
       </c>
       <c r="L10" s="9">
         <f>SUM($K$9:K10)</f>
-        <v>95</v>
+        <v>1</v>
       </c>
       <c r="M10" s="11">
         <f>L10/$J$9</f>
-        <v>0.47499999999999998</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="9">
@@ -23015,43 +22758,35 @@
       </c>
       <c r="P10" s="9">
         <f>SUM($O$9:O10)</f>
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="11">
         <f>P10/$N$9</f>
-        <v>0.40136054421768708</v>
-      </c>
-      <c r="R10" s="47" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S10" s="47" t="e">
-        <f>SUM(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T10" s="7"/>
-      <c r="U10" s="9">
-        <f t="shared" ref="U10" si="2">$G10+$K10+$O10</f>
+        <v>6.8027210884353739E-3</v>
+      </c>
+      <c r="R10" s="7"/>
+      <c r="S10" s="9">
+        <f t="shared" ref="S10" si="2">$G10+$K10+$O10</f>
         <v>0</v>
       </c>
-      <c r="V10" s="9">
-        <f>SUM($U$9:U10)</f>
-        <v>282.5</v>
-      </c>
-      <c r="W10" s="11">
-        <f>U10/$T$9</f>
+      <c r="T10" s="9">
+        <f>SUM($S$9:S10)</f>
+        <v>3</v>
+      </c>
+      <c r="U10" s="11">
+        <f>S10/$R$9</f>
         <v>0</v>
       </c>
-      <c r="X10" s="11">
-        <f>V10/$T$9</f>
-        <v>0.47319932998324959</v>
-      </c>
-      <c r="Y10" s="7" t="str">
-        <f>IF(W10&gt;=0.05,"LEAD",IF(W10&gt;=0.026,"MID","Jr."))</f>
+      <c r="V10" s="11">
+        <f>T10/$R$9</f>
+        <v>5.0251256281407036E-3</v>
+      </c>
+      <c r="W10" s="7" t="str">
+        <f>IF(U10&gt;=0.05,"LEAD",IF(U10&gt;=0.026,"MID","Jr."))</f>
         <v>Jr.</v>
       </c>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B11" s="51"/>
       <c r="C11" s="51"/>
       <c r="D11" s="51"/>
@@ -23074,12 +22809,10 @@
       <c r="U11" s="51"/>
       <c r="V11" s="51"/>
       <c r="W11" s="51"/>
-      <c r="X11" s="51"/>
-      <c r="Y11" s="51"/>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -23092,12 +22825,12 @@
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B13" s="7" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D13" s="8" t="e">
         <f>DATE(B13,C13,1)</f>
@@ -23146,85 +22879,75 @@
         <f>P13/$N$9</f>
         <v>0</v>
       </c>
-      <c r="R13" s="9">
-        <f>SUMIFS('Web アプリ'!$N$10:$N$107,'Web アプリ'!$K$10:$K$107,"&gt;="&amp;$D13,'Web アプリ'!$K$10:$K$107,"&lt;="&amp;$E13)</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="9" t="e">
-        <f>SUM($O$10:R14)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T13" s="44"/>
-      <c r="U13" s="9">
+      <c r="R13" s="44"/>
+      <c r="S13" s="9">
         <f>$G13+$K13+$O13</f>
         <v>0</v>
       </c>
-      <c r="V13" s="9">
-        <f>SUM($U$10:U14)</f>
+      <c r="T13" s="9">
+        <f>SUM($S$10:S14)</f>
         <v>0</v>
       </c>
-      <c r="W13" s="11">
-        <f>U13/$T$9</f>
+      <c r="U13" s="11">
+        <f>S13/$R$9</f>
         <v>0</v>
       </c>
-      <c r="X13" s="11">
-        <f>V13/$T$9</f>
+      <c r="V13" s="11">
+        <f>T13/$R$9</f>
         <v>0</v>
       </c>
-      <c r="Y13" s="7" t="str">
-        <f t="shared" ref="Y13" si="3">IF(W13&gt;=0.04,"LEAD",IF(W13&gt;=0.02,"MID","Jr."))</f>
+      <c r="W13" s="7" t="str">
+        <f t="shared" ref="W13" si="3">IF(U13&gt;=0.04,"LEAD",IF(U13&gt;=0.02,"MID","Jr."))</f>
         <v>Jr.</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="10">
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="S7:T7"/>
     <mergeCell ref="B6:C8"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="J6:M6"/>
     <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="T6:X6"/>
-    <mergeCell ref="Y6:Y8"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R6:V6"/>
   </mergeCells>
   <phoneticPr fontId="13"/>
-  <conditionalFormatting sqref="Y13">
+  <conditionalFormatting sqref="W13">
     <cfRule type="expression" dxfId="8" priority="34">
-      <formula>$Y13="Jr."</formula>
+      <formula>$W13="Jr."</formula>
     </cfRule>
     <cfRule type="expression" dxfId="7" priority="35">
-      <formula>$Y13="LEAD"</formula>
+      <formula>$W13="LEAD"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="36">
-      <formula>$Y13="MID"</formula>
+      <formula>$W13="MID"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y10">
+  <conditionalFormatting sqref="W10">
     <cfRule type="expression" dxfId="5" priority="91">
-      <formula>$Y10="Jr."</formula>
+      <formula>$W10="Jr."</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="92">
-      <formula>$Y10="LEAD"</formula>
+      <formula>$W10="LEAD"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y10">
+  <conditionalFormatting sqref="W10">
     <cfRule type="expression" dxfId="3" priority="153">
-      <formula>$Y10="MID"</formula>
+      <formula>$W10="MID"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y9">
+  <conditionalFormatting sqref="W9">
     <cfRule type="expression" dxfId="2" priority="1">
-      <formula>$Y9="Jr."</formula>
+      <formula>$W9="Jr."</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Y9="LEAD"</formula>
+      <formula>$W9="LEAD"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3">
-      <formula>$Y9="MID"</formula>
+      <formula>$W9="MID"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23258,7 +22981,7 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B3" s="13" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
     </row>
     <row r="4" spans="2:4" hidden="1" x14ac:dyDescent="0.4"/>
@@ -23270,18 +22993,18 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" s="79" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10" s="65" t="s">
-        <v>783</v>
+        <v>779</v>
       </c>
       <c r="C10" s="66">
         <v>44915</v>
@@ -23292,7 +23015,7 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" s="65" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="C11" s="66">
         <v>44925</v>
@@ -23303,7 +23026,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B12" s="65" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C12" s="66">
         <v>44931</v>
@@ -23314,7 +23037,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B13" s="65" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="C13" s="66">
         <v>44936</v>
@@ -23325,7 +23048,7 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B14" s="77" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="C14" s="66">
         <v>44946</v>
@@ -23792,7 +23515,7 @@
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B3" s="13" t="s">
-        <v>765</v>
+        <v>761</v>
       </c>
     </row>
     <row r="4" spans="2:4" hidden="1" x14ac:dyDescent="0.4"/>
@@ -23804,13 +23527,13 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B9" s="79" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C9" s="49" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>788</v>
+        <v>784</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.4">
@@ -24271,8 +23994,8 @@
   </sheetPr>
   <dimension ref="A2:Q13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="1" x14ac:dyDescent="0.4"/>
@@ -24295,66 +24018,66 @@
     <row r="2" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="56"/>
       <c r="B2" s="57" t="s">
-        <v>790</v>
+        <v>786</v>
       </c>
       <c r="C2" s="56"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
       <c r="D6" s="52" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E6" s="52"/>
       <c r="F6" s="53" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="G6" s="53"/>
       <c r="H6" s="54" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="I6" s="54"/>
       <c r="J6" s="54"/>
       <c r="L6" s="53" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="M6" s="53"/>
       <c r="N6" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="O6" s="55" t="s">
         <v>753</v>
-      </c>
-      <c r="O6" s="55" t="s">
-        <v>755</v>
       </c>
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
       <c r="F7" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="12" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="M7" s="6" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="55" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
@@ -24363,15 +24086,13 @@
       <c r="B8" s="7">
         <v>2022</v>
       </c>
-      <c r="C8" s="7">
-        <v>12</v>
+      <c r="C8" s="7" t="s">
+        <v>742</v>
       </c>
       <c r="D8" s="8">
-        <f>DATE(B8,C8,1)</f>
-        <v>44896</v>
+        <v>43831</v>
       </c>
       <c r="E8" s="8">
-        <f>EOMONTH(D8,0)</f>
         <v>44926</v>
       </c>
       <c r="F8" s="44">
@@ -24446,7 +24167,7 @@
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="55" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
@@ -24465,7 +24186,7 @@
       <c r="M10" s="51"/>
       <c r="N10" s="10"/>
       <c r="O10" s="55" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
@@ -24473,14 +24194,14 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.4">
       <c r="N11" s="10"/>
       <c r="O11" s="55" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B12" s="10" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -24500,10 +24221,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B13" s="7" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="D13" s="8" t="e">
         <f>DATE(B13,C13,1)</f>
@@ -24570,7 +24291,7 @@
   <sheetData>
     <row r="2" spans="2:2" ht="42" x14ac:dyDescent="0.4">
       <c r="B2" s="2" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
   </sheetData>
@@ -45424,7 +45145,7 @@
   </sheetPr>
   <dimension ref="B2:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -45435,189 +45156,189 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="B2" s="97" t="s">
-        <v>766</v>
+      <c r="B2" s="85" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B3" s="99" t="s">
-        <v>767</v>
+      <c r="B3" s="87" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="100" t="s">
-        <v>793</v>
+      <c r="C4" s="88" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="96" t="s">
-        <v>781</v>
+      <c r="C5" s="84" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="96"/>
+      <c r="C6" s="84"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B7" s="99" t="s">
-        <v>768</v>
+      <c r="B7" s="87" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="100" t="s">
-        <v>792</v>
+      <c r="C8" s="88" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" s="96" t="s">
-        <v>776</v>
+      <c r="C9" s="84" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="C10" s="96" t="s">
-        <v>769</v>
+      <c r="C10" s="84" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="C11" s="96"/>
+      <c r="C11" s="84"/>
     </row>
     <row r="13" spans="2:3" ht="25.5" x14ac:dyDescent="0.4">
-      <c r="B13" s="97" t="s">
-        <v>765</v>
+      <c r="B13" s="85" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B14" s="99" t="s">
-        <v>767</v>
+      <c r="B14" s="87" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15">
         <v>1</v>
       </c>
-      <c r="C15" s="100" t="s">
-        <v>782</v>
+      <c r="C15" s="88" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16" s="100" t="s">
-        <v>794</v>
+      <c r="C16" s="88" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B17">
         <v>3</v>
       </c>
-      <c r="C17" s="96" t="s">
-        <v>770</v>
+      <c r="C17" s="84" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B18">
         <v>4</v>
       </c>
-      <c r="C18" s="96" t="s">
+      <c r="C18" s="84" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B20" s="87" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B21" s="84">
+        <v>1</v>
+      </c>
+      <c r="C21" s="88" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B22" s="84">
+        <v>2</v>
+      </c>
+      <c r="C22" s="84" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B24" s="87" t="s">
         <v>771</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B20" s="99" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B21" s="96">
-        <v>1</v>
-      </c>
-      <c r="C21" s="100" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B22" s="96">
-        <v>2</v>
-      </c>
-      <c r="C22" s="96" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B24" s="99" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B25">
         <v>1</v>
       </c>
-      <c r="C25" s="96" t="s">
-        <v>777</v>
+      <c r="C25" s="84" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B26">
         <v>2</v>
       </c>
-      <c r="C26" s="96" t="s">
-        <v>769</v>
+      <c r="C26" s="84" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B28" s="96" t="s">
+      <c r="B28" s="84" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B29" s="84" t="s">
+        <v>794</v>
+      </c>
+      <c r="C29" s="84" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B30" s="84" t="s">
+        <v>794</v>
+      </c>
+      <c r="C30" s="84" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" ht="24" x14ac:dyDescent="0.4">
+      <c r="B33" s="86" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" ht="24" x14ac:dyDescent="0.4">
+      <c r="B34" s="86" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B36" s="89" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B29" s="96" t="s">
-        <v>798</v>
-      </c>
-      <c r="C29" s="96" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B30" s="96" t="s">
-        <v>798</v>
-      </c>
-      <c r="C30" s="96" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" ht="24" x14ac:dyDescent="0.4">
-      <c r="B33" s="98" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" ht="24" x14ac:dyDescent="0.4">
-      <c r="B34" s="98" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B36" s="101" t="s">
-        <v>801</v>
-      </c>
-    </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B37" s="101" t="s">
-        <v>780</v>
+      <c r="B37" s="89" t="s">
+        <v>776</v>
       </c>
     </row>
   </sheetData>
@@ -45631,10 +45352,10 @@
   <dimension ref="B2:W161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="9" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="9" topLeftCell="C151" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="O158" sqref="O158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -45760,7 +45481,7 @@
         <v>262</v>
       </c>
       <c r="K9" s="49" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="L9" s="50" t="s">
         <v>245</v>
@@ -45769,10 +45490,10 @@
         <v>694</v>
       </c>
       <c r="N9" s="60" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="O9" s="60" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.4">
@@ -45870,20 +45591,18 @@
         <f>'LESSONS (Java)'!J10</f>
         <v>Java SE とは？ JVM とは？ JRE とは？ JDK とは？</v>
       </c>
-      <c r="K11" s="66">
-        <v>44311</v>
-      </c>
+      <c r="K11" s="66"/>
       <c r="L11" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K10,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M11" s="27" t="str">
         <f t="shared" ref="M11:M74" si="0">IF(K11&lt;&gt;"","●","")</f>
-        <v>●</v>
-      </c>
-      <c r="N11" s="26">
+        <v/>
+      </c>
+      <c r="N11" s="26" t="str">
         <f t="shared" ref="N11:N74" si="1">IF(M11="●",L11,"")</f>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P11" s="28"/>
       <c r="Q11" s="29" t="s">
@@ -45930,20 +45649,18 @@
         <f>'LESSONS (Java)'!J11</f>
         <v>Java 開発環境の構築</v>
       </c>
-      <c r="K12" s="66">
-        <v>44313</v>
-      </c>
+      <c r="K12" s="66"/>
       <c r="L12" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K11,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M12" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N12" s="26">
+        <v/>
+      </c>
+      <c r="N12" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P12" s="28"/>
       <c r="Q12" s="29" t="s">
@@ -45990,20 +45707,18 @@
         <f>'LESSONS (Java)'!J12</f>
         <v>VSCode で Java 開発環境を爆速で作り上げる</v>
       </c>
-      <c r="K13" s="66">
-        <v>44313</v>
-      </c>
+      <c r="K13" s="66"/>
       <c r="L13" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K12,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M13" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N13" s="26">
+        <v/>
+      </c>
+      <c r="N13" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P13" s="28"/>
       <c r="Q13" s="29" t="s">
@@ -46049,20 +45764,18 @@
         <f>'LESSONS (Java)'!J13</f>
         <v>Scoop とは</v>
       </c>
-      <c r="K14" s="66">
-        <v>44320</v>
-      </c>
+      <c r="K14" s="66"/>
       <c r="L14" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K13,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M14" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N14" s="26">
+        <v/>
+      </c>
+      <c r="N14" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P14" s="28"/>
       <c r="Q14" s="29" t="s">
@@ -46108,20 +45821,18 @@
         <f>'LESSONS (Java)'!J14</f>
         <v>Scoop のメリット</v>
       </c>
-      <c r="K15" s="66">
-        <v>44321</v>
-      </c>
+      <c r="K15" s="66"/>
       <c r="L15" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K14,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M15" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N15" s="26">
+        <v/>
+      </c>
+      <c r="N15" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P15" s="28"/>
       <c r="Q15" s="29" t="s">
@@ -46167,20 +45878,18 @@
         <f>'LESSONS (Java)'!J15</f>
         <v>Scoop のインストール方法</v>
       </c>
-      <c r="K16" s="66">
-        <v>44324</v>
-      </c>
+      <c r="K16" s="66"/>
       <c r="L16" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K15,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M16" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N16" s="26">
+        <v/>
+      </c>
+      <c r="N16" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P16" s="28"/>
       <c r="Q16" s="29" t="s">
@@ -46226,20 +45935,18 @@
         <f>'LESSONS (Java)'!J16</f>
         <v>Java (JDK) をインストールする（Scoop を使って）</v>
       </c>
-      <c r="K17" s="66">
-        <v>44331</v>
-      </c>
+      <c r="K17" s="66"/>
       <c r="L17" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K16,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M17" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N17" s="26">
+        <v/>
+      </c>
+      <c r="N17" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P17" s="28"/>
       <c r="Q17" s="29" t="s">
@@ -46285,20 +45992,18 @@
         <f>'LESSONS (Java)'!J17</f>
         <v>開発者に適した VSCode ポータブル版の導入方法</v>
       </c>
-      <c r="K18" s="66">
-        <v>44333</v>
-      </c>
+      <c r="K18" s="66"/>
       <c r="L18" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K17,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M18" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N18" s="26">
+        <v/>
+      </c>
+      <c r="N18" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P18" s="28"/>
       <c r="Q18" s="29" t="s">
@@ -46344,20 +46049,18 @@
         <f>'LESSONS (Java)'!J18</f>
         <v>VSCode で Java プロジェクトを使えるようにする</v>
       </c>
-      <c r="K19" s="66">
-        <v>44339</v>
-      </c>
+      <c r="K19" s="66"/>
       <c r="L19" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K18,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M19" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N19" s="26">
+        <v/>
+      </c>
+      <c r="N19" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P19" s="28"/>
       <c r="Q19" s="29" t="s">
@@ -46403,20 +46106,18 @@
         <f>'LESSONS (Java)'!J19</f>
         <v>最初のプログラム Hello world.</v>
       </c>
-      <c r="K20" s="66">
-        <v>44339</v>
-      </c>
+      <c r="K20" s="66"/>
       <c r="L20" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K19,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M20" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N20" s="26">
+        <v/>
+      </c>
+      <c r="N20" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P20" s="28"/>
       <c r="Q20" s="29" t="s">
@@ -46462,20 +46163,18 @@
         <f>'LESSONS (Java)'!J20</f>
         <v>情報収集の方法</v>
       </c>
-      <c r="K21" s="66">
-        <v>44339</v>
-      </c>
+      <c r="K21" s="66"/>
       <c r="L21" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K20,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M21" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N21" s="26">
+        <v/>
+      </c>
+      <c r="N21" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P21" s="28"/>
       <c r="Q21" s="29" t="s">
@@ -46521,20 +46220,18 @@
         <f>'LESSONS (Java)'!J21</f>
         <v>コンパイル方法</v>
       </c>
-      <c r="K22" s="66">
-        <v>44339</v>
-      </c>
+      <c r="K22" s="66"/>
       <c r="L22" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K21,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M22" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N22" s="26">
+        <v/>
+      </c>
+      <c r="N22" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P22" s="28"/>
       <c r="Q22" s="29" t="s">
@@ -46580,20 +46277,18 @@
         <f>'LESSONS (Java)'!J22</f>
         <v>コマンドライン引数</v>
       </c>
-      <c r="K23" s="66">
-        <v>44349</v>
-      </c>
+      <c r="K23" s="66"/>
       <c r="L23" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K22,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M23" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N23" s="26">
+        <v/>
+      </c>
+      <c r="N23" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P23" s="28"/>
       <c r="Q23" s="29" t="s">
@@ -46639,20 +46334,18 @@
         <f>'LESSONS (Java)'!J23</f>
         <v>スキルアップできる質問の方法</v>
       </c>
-      <c r="K24" s="66">
-        <v>44349</v>
-      </c>
+      <c r="K24" s="66"/>
       <c r="L24" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K23,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M24" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N24" s="26">
+        <v/>
+      </c>
+      <c r="N24" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P24" s="28"/>
       <c r="Q24" s="29" t="s">
@@ -46698,20 +46391,18 @@
         <f>'LESSONS (Java)'!J24</f>
         <v>Java の変数</v>
       </c>
-      <c r="K25" s="66">
-        <v>44349</v>
-      </c>
+      <c r="K25" s="66"/>
       <c r="L25" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K24,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M25" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N25" s="26">
+        <v/>
+      </c>
+      <c r="N25" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P25" s="28"/>
       <c r="Q25" s="29" t="s">
@@ -46757,20 +46448,18 @@
         <f>'LESSONS (Java)'!J25</f>
         <v>Java の予約語</v>
       </c>
-      <c r="K26" s="66">
-        <v>44349</v>
-      </c>
+      <c r="K26" s="66"/>
       <c r="L26" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K25,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M26" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N26" s="26">
+        <v/>
+      </c>
+      <c r="N26" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P26" s="28"/>
       <c r="Q26" s="29" t="s">
@@ -46816,20 +46505,18 @@
         <f>'LESSONS (Java)'!J26</f>
         <v>Java の基本データ型</v>
       </c>
-      <c r="K27" s="66">
-        <v>44357</v>
-      </c>
+      <c r="K27" s="66"/>
       <c r="L27" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K26,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M27" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N27" s="26">
+        <v/>
+      </c>
+      <c r="N27" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P27" s="28"/>
       <c r="Q27" s="29" t="s">
@@ -46875,20 +46562,18 @@
         <f>'LESSONS (Java)'!J27</f>
         <v>Java のオーバーフロー</v>
       </c>
-      <c r="K28" s="66">
-        <v>44357</v>
-      </c>
+      <c r="K28" s="66"/>
       <c r="L28" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K27,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M28" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N28" s="26">
+        <v/>
+      </c>
+      <c r="N28" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P28" s="28"/>
       <c r="Q28" s="29" t="s">
@@ -46934,20 +46619,18 @@
         <f>'LESSONS (Java)'!J28</f>
         <v>Java 基本型のキャスト</v>
       </c>
-      <c r="K29" s="66">
-        <v>44357</v>
-      </c>
+      <c r="K29" s="66"/>
       <c r="L29" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K28,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M29" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N29" s="26">
+        <v/>
+      </c>
+      <c r="N29" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P29" s="28"/>
       <c r="Q29" s="29" t="s">
@@ -46993,20 +46676,18 @@
         <f>'LESSONS (Java)'!J29</f>
         <v>一般的な Java の命名規則</v>
       </c>
-      <c r="K30" s="66">
-        <v>44363</v>
-      </c>
+      <c r="K30" s="66"/>
       <c r="L30" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K29,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M30" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N30" s="26">
+        <v/>
+      </c>
+      <c r="N30" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P30" s="28"/>
       <c r="Q30" s="29" t="s">
@@ -47052,20 +46733,18 @@
         <f>'LESSONS (Java)'!J30</f>
         <v>補完機能でコーディングをスピードアップしよう</v>
       </c>
-      <c r="K31" s="66">
-        <v>44363</v>
-      </c>
+      <c r="K31" s="66"/>
       <c r="L31" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K30,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M31" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N31" s="26">
+        <v/>
+      </c>
+      <c r="N31" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P31" s="28"/>
       <c r="Q31" s="29" t="s">
@@ -47111,20 +46790,18 @@
         <f>'LESSONS (Java)'!J31</f>
         <v>実態を表す変数名にこだわる</v>
       </c>
-      <c r="K32" s="66">
-        <v>44369</v>
-      </c>
+      <c r="K32" s="66"/>
       <c r="L32" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K31,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M32" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N32" s="26">
+        <v/>
+      </c>
+      <c r="N32" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P32" s="28"/>
       <c r="Q32" s="29" t="s">
@@ -47170,20 +46847,18 @@
         <f>'LESSONS (Java)'!J32</f>
         <v>真偽値の変数名の付け方</v>
       </c>
-      <c r="K33" s="66">
-        <v>44369</v>
-      </c>
+      <c r="K33" s="66"/>
       <c r="L33" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K32,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M33" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N33" s="26">
+        <v/>
+      </c>
+      <c r="N33" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P33" s="28"/>
       <c r="Q33" s="29" t="s">
@@ -47229,20 +46904,18 @@
         <f>'LESSONS (Java)'!J33</f>
         <v>IDE の自動整形機能を使う</v>
       </c>
-      <c r="K34" s="66">
-        <v>44372</v>
-      </c>
+      <c r="K34" s="66"/>
       <c r="L34" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K33,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M34" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N34" s="26">
+        <v/>
+      </c>
+      <c r="N34" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P34" s="28"/>
       <c r="Q34" s="29" t="s">
@@ -47288,20 +46961,18 @@
         <f>'LESSONS (Java)'!J34</f>
         <v>IDE の Quick Fix を使う</v>
       </c>
-      <c r="K35" s="66">
-        <v>44375</v>
-      </c>
+      <c r="K35" s="66"/>
       <c r="L35" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K34,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M35" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N35" s="26">
+        <v/>
+      </c>
+      <c r="N35" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P35" s="28"/>
       <c r="Q35" s="29" t="s">
@@ -47347,24 +47018,22 @@
         <f>'LESSONS (Java)'!J35</f>
         <v>⌨ ショートカットキーで IDE を操作する</v>
       </c>
-      <c r="K36" s="66" t="s">
-        <v>717</v>
-      </c>
+      <c r="K36" s="66"/>
       <c r="L36" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K35,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M36" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N36" s="26">
+        <v/>
+      </c>
+      <c r="N36" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P36" s="28"/>
       <c r="Q36" s="29" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="R36" s="28"/>
       <c r="S36" s="28"/>
@@ -47406,24 +47075,22 @@
         <f>'LESSONS (Java)'!J36</f>
         <v>⌨ 1. 基本的なショートカットキー</v>
       </c>
-      <c r="K37" s="66">
-        <v>44381</v>
-      </c>
+      <c r="K37" s="66"/>
       <c r="L37" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K36,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M37" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N37" s="26">
+        <v/>
+      </c>
+      <c r="N37" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P37" s="28"/>
       <c r="Q37" s="29" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="R37" s="28"/>
       <c r="S37" s="28"/>
@@ -47465,20 +47132,18 @@
         <f>'LESSONS (Java)'!J37</f>
         <v>⌨ 2. ショートカットキーリスト</v>
       </c>
-      <c r="K38" s="66">
-        <v>44383</v>
-      </c>
+      <c r="K38" s="66"/>
       <c r="L38" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K37,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M38" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N38" s="26">
+        <v/>
+      </c>
+      <c r="N38" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P38" s="28"/>
       <c r="Q38" s="29" t="s">
@@ -47524,24 +47189,22 @@
         <f>'LESSONS (Java)'!J38</f>
         <v>文字列操作</v>
       </c>
-      <c r="K39" s="66">
-        <v>44383</v>
-      </c>
+      <c r="K39" s="66"/>
       <c r="L39" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K38,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M39" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N39" s="26">
+        <v/>
+      </c>
+      <c r="N39" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P39" s="28"/>
       <c r="Q39" s="29" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="R39" s="28"/>
       <c r="S39" s="28"/>
@@ -47583,24 +47246,22 @@
         <f>'LESSONS (Java)'!J39</f>
         <v>文字列入力</v>
       </c>
-      <c r="K40" s="66">
-        <v>44383</v>
-      </c>
+      <c r="K40" s="66"/>
       <c r="L40" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K39,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M40" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N40" s="26">
+        <v/>
+      </c>
+      <c r="N40" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P40" s="28"/>
       <c r="Q40" s="29" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="R40" s="28"/>
       <c r="S40" s="28"/>
@@ -47642,24 +47303,22 @@
         <f>'LESSONS (Java)'!J40</f>
         <v>Java の算術演算子</v>
       </c>
-      <c r="K41" s="66">
-        <v>44387</v>
-      </c>
+      <c r="K41" s="66"/>
       <c r="L41" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K40,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M41" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N41" s="26">
+        <v/>
+      </c>
+      <c r="N41" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P41" s="28"/>
       <c r="Q41" s="29" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="R41" s="28"/>
       <c r="S41" s="28"/>
@@ -47701,24 +47360,22 @@
         <f>'LESSONS (Java)'!J41</f>
         <v>Java の代入演算子</v>
       </c>
-      <c r="K42" s="66">
-        <v>44387</v>
-      </c>
+      <c r="K42" s="66"/>
       <c r="L42" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K41,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M42" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N42" s="26">
+        <v/>
+      </c>
+      <c r="N42" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P42" s="28"/>
       <c r="Q42" s="29" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="R42" s="28"/>
       <c r="S42" s="28"/>
@@ -47760,20 +47417,18 @@
         <f>'LESSONS (Java)'!J42</f>
         <v>Java の関係演算子</v>
       </c>
-      <c r="K43" s="66">
-        <v>44387</v>
-      </c>
+      <c r="K43" s="66"/>
       <c r="L43" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K42,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M43" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N43" s="26">
+        <v/>
+      </c>
+      <c r="N43" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P43" s="28"/>
       <c r="Q43" s="29" t="s">
@@ -47819,20 +47474,18 @@
         <f>'LESSONS (Java)'!J43</f>
         <v>Java の論理演算子</v>
       </c>
-      <c r="K44" s="66">
-        <v>44389</v>
-      </c>
+      <c r="K44" s="66"/>
       <c r="L44" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K43,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M44" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N44" s="26">
+        <v/>
+      </c>
+      <c r="N44" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="P44" s="28"/>
       <c r="Q44" s="28"/>
@@ -47876,20 +47529,18 @@
         <f>'LESSONS (Java)'!J44</f>
         <v>インクリメント・デクリメント</v>
       </c>
-      <c r="K45" s="66">
-        <v>44389</v>
-      </c>
+      <c r="K45" s="66"/>
       <c r="L45" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K44,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M45" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N45" s="26">
+        <v/>
+      </c>
+      <c r="N45" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="46" spans="3:23" x14ac:dyDescent="0.4">
@@ -47925,20 +47576,18 @@
         <f>'LESSONS (Java)'!J45</f>
         <v>Java でのコメントの書き方</v>
       </c>
-      <c r="K46" s="66">
-        <v>44392</v>
-      </c>
+      <c r="K46" s="66"/>
       <c r="L46" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K45,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M46" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N46" s="26">
+        <v/>
+      </c>
+      <c r="N46" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="47" spans="3:23" x14ac:dyDescent="0.4">
@@ -47974,20 +47623,18 @@
         <f>'LESSONS (Java)'!J46</f>
         <v>Java での書式指定</v>
       </c>
-      <c r="K47" s="66">
-        <v>44393</v>
-      </c>
+      <c r="K47" s="66"/>
       <c r="L47" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K46,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M47" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N47" s="26">
+        <v/>
+      </c>
+      <c r="N47" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="48" spans="3:23" x14ac:dyDescent="0.4">
@@ -48023,20 +47670,18 @@
         <f>'LESSONS (Java)'!J47</f>
         <v>不要なコメントアウトを残さない</v>
       </c>
-      <c r="K48" s="66">
-        <v>44393</v>
-      </c>
+      <c r="K48" s="66"/>
       <c r="L48" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K47,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M48" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N48" s="26">
+        <v/>
+      </c>
+      <c r="N48" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="49" spans="3:14" x14ac:dyDescent="0.4">
@@ -48072,20 +47717,18 @@
         <f>'LESSONS (Java)'!J48</f>
         <v>🐽 「不吉なにおい」とは</v>
       </c>
-      <c r="K49" s="66">
-        <v>44395</v>
-      </c>
+      <c r="K49" s="66"/>
       <c r="L49" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K48,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M49" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N49" s="26">
+        <v/>
+      </c>
+      <c r="N49" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="50" spans="3:14" x14ac:dyDescent="0.4">
@@ -48121,20 +47764,18 @@
         <f>'LESSONS (Java)'!J49</f>
         <v>不吉なにおい 🐽 変数名にコメントを付ける</v>
       </c>
-      <c r="K50" s="66">
-        <v>44395</v>
-      </c>
+      <c r="K50" s="66"/>
       <c r="L50" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K49,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M50" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N50" s="26">
+        <v/>
+      </c>
+      <c r="N50" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="51" spans="3:14" x14ac:dyDescent="0.4">
@@ -48170,20 +47811,18 @@
         <f>'LESSONS (Java)'!J50</f>
         <v>Java の配列</v>
       </c>
-      <c r="K51" s="66">
-        <v>44400</v>
-      </c>
+      <c r="K51" s="66"/>
       <c r="L51" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K50,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M51" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N51" s="26">
+        <v/>
+      </c>
+      <c r="N51" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="52" spans="3:14" x14ac:dyDescent="0.4">
@@ -48219,20 +47858,18 @@
         <f>'LESSONS (Java)'!J51</f>
         <v>Java の多次元配列</v>
       </c>
-      <c r="K52" s="66">
-        <v>44400</v>
-      </c>
+      <c r="K52" s="66"/>
       <c r="L52" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K51,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M52" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N52" s="26">
+        <v/>
+      </c>
+      <c r="N52" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="53" spans="3:14" x14ac:dyDescent="0.4">
@@ -48268,20 +47905,18 @@
         <f>'LESSONS (Java)'!J52</f>
         <v>Java のリスト（ArrayList クラス）</v>
       </c>
-      <c r="K53" s="66">
-        <v>44402</v>
-      </c>
+      <c r="K53" s="66"/>
       <c r="L53" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K52,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M53" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N53" s="26">
+        <v/>
+      </c>
+      <c r="N53" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="54" spans="3:14" x14ac:dyDescent="0.4">
@@ -48317,20 +47952,18 @@
         <f>'LESSONS (Java)'!J53</f>
         <v>Java の if 文</v>
       </c>
-      <c r="K54" s="66">
-        <v>44402</v>
-      </c>
+      <c r="K54" s="66"/>
       <c r="L54" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K53,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M54" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N54" s="26">
+        <v/>
+      </c>
+      <c r="N54" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="55" spans="3:14" x14ac:dyDescent="0.4">
@@ -48366,20 +47999,18 @@
         <f>'LESSONS (Java)'!J54</f>
         <v>Java の三項演算子</v>
       </c>
-      <c r="K55" s="66">
-        <v>44406</v>
-      </c>
+      <c r="K55" s="66"/>
       <c r="L55" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K54,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M55" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N55" s="26">
+        <v/>
+      </c>
+      <c r="N55" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="56" spans="3:14" x14ac:dyDescent="0.4">
@@ -48415,20 +48046,18 @@
         <f>'LESSONS (Java)'!J55</f>
         <v>Java の for 文</v>
       </c>
-      <c r="K56" s="66">
-        <v>44406</v>
-      </c>
+      <c r="K56" s="66"/>
       <c r="L56" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K55,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M56" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N56" s="26">
+        <v/>
+      </c>
+      <c r="N56" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="57" spans="3:14" x14ac:dyDescent="0.4">
@@ -48464,20 +48093,18 @@
         <f>'LESSONS (Java)'!J56</f>
         <v>Java の拡張 for 文</v>
       </c>
-      <c r="K57" s="66">
-        <v>44411</v>
-      </c>
+      <c r="K57" s="66"/>
       <c r="L57" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K56,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M57" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N57" s="26">
+        <v/>
+      </c>
+      <c r="N57" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="58" spans="3:14" x14ac:dyDescent="0.4">
@@ -48513,20 +48140,18 @@
         <f>'LESSONS (Java)'!J57</f>
         <v>Java の while 文</v>
       </c>
-      <c r="K58" s="66">
-        <v>44412</v>
-      </c>
+      <c r="K58" s="66"/>
       <c r="L58" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K57,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M58" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N58" s="26">
+        <v/>
+      </c>
+      <c r="N58" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="59" spans="3:14" x14ac:dyDescent="0.4">
@@ -48562,20 +48187,18 @@
         <f>'LESSONS (Java)'!J58</f>
         <v>Java の continue と break</v>
       </c>
-      <c r="K59" s="66">
-        <v>44414</v>
-      </c>
+      <c r="K59" s="66"/>
       <c r="L59" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K58,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M59" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N59" s="26">
+        <v/>
+      </c>
+      <c r="N59" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="60" spans="3:14" x14ac:dyDescent="0.4">
@@ -48611,20 +48234,18 @@
         <f>'LESSONS (Java)'!J59</f>
         <v>Java 変数のスコープ</v>
       </c>
-      <c r="K60" s="66">
-        <v>44418</v>
-      </c>
+      <c r="K60" s="66"/>
       <c r="L60" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K59,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M60" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N60" s="26">
+        <v/>
+      </c>
+      <c r="N60" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="61" spans="3:14" x14ac:dyDescent="0.4">
@@ -48660,20 +48281,18 @@
         <f>'LESSONS (Java)'!J60</f>
         <v>🤔 コードレビューは成長への近道</v>
       </c>
-      <c r="K61" s="66">
-        <v>44418</v>
-      </c>
+      <c r="K61" s="66"/>
       <c r="L61" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K60,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M61" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N61" s="26">
+        <v/>
+      </c>
+      <c r="N61" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="62" spans="3:14" x14ac:dyDescent="0.4">
@@ -48709,20 +48328,18 @@
         <f>'LESSONS (Java)'!J61</f>
         <v>🤔 3か月前の自分は他人</v>
       </c>
-      <c r="K62" s="66">
-        <v>44418</v>
-      </c>
+      <c r="K62" s="66"/>
       <c r="L62" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K61,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M62" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N62" s="26">
+        <v/>
+      </c>
+      <c r="N62" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="63" spans="3:14" x14ac:dyDescent="0.4">
@@ -48758,20 +48375,18 @@
         <f>'LESSONS (Java)'!J62</f>
         <v>作成課題 ⭐ 数当てゲーム</v>
       </c>
-      <c r="K63" s="66">
-        <v>44429</v>
-      </c>
+      <c r="K63" s="66"/>
       <c r="L63" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K62,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="M63" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N63" s="26">
+        <v/>
+      </c>
+      <c r="N63" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v/>
       </c>
     </row>
     <row r="64" spans="3:14" x14ac:dyDescent="0.4">
@@ -48807,20 +48422,18 @@
         <f>'LESSONS (Java)'!J63</f>
         <v>Java のメソッド</v>
       </c>
-      <c r="K64" s="66">
-        <v>44432</v>
-      </c>
+      <c r="K64" s="66"/>
       <c r="L64" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K63,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M64" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N64" s="26">
+        <v/>
+      </c>
+      <c r="N64" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="65" spans="3:14" x14ac:dyDescent="0.4">
@@ -48856,20 +48469,18 @@
         <f>'LESSONS (Java)'!J64</f>
         <v>再帰メソッド</v>
       </c>
-      <c r="K65" s="66">
-        <v>44436</v>
-      </c>
+      <c r="K65" s="66"/>
       <c r="L65" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K64,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M65" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N65" s="26">
+        <v/>
+      </c>
+      <c r="N65" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="66" spans="3:14" x14ac:dyDescent="0.4">
@@ -48905,20 +48516,18 @@
         <f>'LESSONS (Java)'!J65</f>
         <v>Java の値渡しと参照渡し</v>
       </c>
-      <c r="K66" s="66">
-        <v>44440</v>
-      </c>
+      <c r="K66" s="66"/>
       <c r="L66" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K65,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M66" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N66" s="26">
+        <v/>
+      </c>
+      <c r="N66" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="67" spans="3:14" x14ac:dyDescent="0.4">
@@ -48954,20 +48563,18 @@
         <f>'LESSONS (Java)'!J66</f>
         <v>VSCode で Java のデバッグをする</v>
       </c>
-      <c r="K67" s="66">
-        <v>44440</v>
-      </c>
+      <c r="K67" s="66"/>
       <c r="L67" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K66,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M67" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N67" s="26">
+        <v/>
+      </c>
+      <c r="N67" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="68" spans="3:14" x14ac:dyDescent="0.4">
@@ -49003,20 +48610,18 @@
         <f>'LESSONS (Java)'!J67</f>
         <v>作成課題 ⭐ トランプ当てゲーム</v>
       </c>
-      <c r="K68" s="66">
-        <v>44448</v>
-      </c>
+      <c r="K68" s="66"/>
       <c r="L68" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K67,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="M68" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N68" s="26">
+        <v/>
+      </c>
+      <c r="N68" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v/>
       </c>
     </row>
     <row r="69" spans="3:14" x14ac:dyDescent="0.4">
@@ -49052,20 +48657,18 @@
         <f>'LESSONS (Java)'!J68</f>
         <v>リファクタリングとは</v>
       </c>
-      <c r="K69" s="66">
-        <v>44450</v>
-      </c>
+      <c r="K69" s="66"/>
       <c r="L69" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K68,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M69" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N69" s="26">
+        <v/>
+      </c>
+      <c r="N69" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="70" spans="3:14" x14ac:dyDescent="0.4">
@@ -49101,20 +48704,18 @@
         <f>'LESSONS (Java)'!J69</f>
         <v>IDE でメソッド定義元へジャンプ</v>
       </c>
-      <c r="K70" s="66">
-        <v>44451</v>
-      </c>
+      <c r="K70" s="66"/>
       <c r="L70" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K69,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M70" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N70" s="26">
+        <v/>
+      </c>
+      <c r="N70" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="71" spans="3:14" x14ac:dyDescent="0.4">
@@ -49150,20 +48751,18 @@
         <f>'LESSONS (Java)'!J70</f>
         <v>IDE でメソッド参照先へジャンプ</v>
       </c>
-      <c r="K71" s="66">
-        <v>44452</v>
-      </c>
+      <c r="K71" s="66"/>
       <c r="L71" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K70,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M71" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N71" s="26">
+        <v/>
+      </c>
+      <c r="N71" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="72" spans="3:14" x14ac:dyDescent="0.4">
@@ -49199,20 +48798,18 @@
         <f>'LESSONS (Java)'!J71</f>
         <v>IDE の一括置換機能</v>
       </c>
-      <c r="K72" s="66">
-        <v>44454</v>
-      </c>
+      <c r="K72" s="66"/>
       <c r="L72" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K71,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M72" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N72" s="26">
+        <v/>
+      </c>
+      <c r="N72" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="73" spans="3:14" x14ac:dyDescent="0.4">
@@ -49248,20 +48845,18 @@
         <f>'LESSONS (Java)'!J72</f>
         <v>作成課題 ⭐ じゃんけんゲーム</v>
       </c>
-      <c r="K73" s="66">
-        <v>44459</v>
-      </c>
+      <c r="K73" s="66"/>
       <c r="L73" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K72,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="M73" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N73" s="26">
+        <v/>
+      </c>
+      <c r="N73" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v/>
       </c>
     </row>
     <row r="74" spans="3:14" x14ac:dyDescent="0.4">
@@ -49297,20 +48892,18 @@
         <f>'LESSONS (Java)'!J73</f>
         <v>悪い習慣 😈 名前にないことをやる</v>
       </c>
-      <c r="K74" s="66">
-        <v>44461</v>
-      </c>
+      <c r="K74" s="66"/>
       <c r="L74" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K73,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M74" s="27" t="str">
         <f t="shared" si="0"/>
-        <v>●</v>
-      </c>
-      <c r="N74" s="26">
+        <v/>
+      </c>
+      <c r="N74" s="26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="75" spans="3:14" x14ac:dyDescent="0.4">
@@ -49346,20 +48939,18 @@
         <f>'LESSONS (Java)'!J74</f>
         <v>悪い習慣 😈 見ればわかることをコメントに書く</v>
       </c>
-      <c r="K75" s="66">
-        <v>44463</v>
-      </c>
+      <c r="K75" s="66"/>
       <c r="L75" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K74,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M75" s="27" t="str">
         <f t="shared" ref="M75:M138" si="2">IF(K75&lt;&gt;"","●","")</f>
-        <v>●</v>
-      </c>
-      <c r="N75" s="26">
+        <v/>
+      </c>
+      <c r="N75" s="26" t="str">
         <f t="shared" ref="N75:N138" si="3">IF(M75="●",L75,"")</f>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="76" spans="3:14" x14ac:dyDescent="0.4">
@@ -49395,20 +48986,18 @@
         <f>'LESSONS (Java)'!J75</f>
         <v>作成課題 ⭐ ブラックジャック</v>
       </c>
-      <c r="K76" s="66">
-        <v>44471</v>
-      </c>
+      <c r="K76" s="66"/>
       <c r="L76" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K75,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>6</v>
       </c>
       <c r="M76" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>●</v>
-      </c>
-      <c r="N76" s="26">
+        <v/>
+      </c>
+      <c r="N76" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v/>
       </c>
     </row>
     <row r="77" spans="3:14" x14ac:dyDescent="0.4">
@@ -49444,20 +49033,18 @@
         <f>'LESSONS (Java)'!J76</f>
         <v>悪い習慣 😈 嘘のコメントを書く</v>
       </c>
-      <c r="K77" s="66">
-        <v>44474</v>
-      </c>
+      <c r="K77" s="66"/>
       <c r="L77" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K76,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M77" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>●</v>
-      </c>
-      <c r="N77" s="26">
+        <v/>
+      </c>
+      <c r="N77" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="78" spans="3:14" x14ac:dyDescent="0.4">
@@ -49493,20 +49080,18 @@
         <f>'LESSONS (Java)'!J77</f>
         <v>悪い習慣 😈 クラス名が動詞</v>
       </c>
-      <c r="K78" s="66">
-        <v>44476</v>
-      </c>
+      <c r="K78" s="66"/>
       <c r="L78" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K77,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1</v>
       </c>
       <c r="M78" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>●</v>
-      </c>
-      <c r="N78" s="26">
+        <v/>
+      </c>
+      <c r="N78" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v/>
       </c>
     </row>
     <row r="79" spans="3:14" x14ac:dyDescent="0.4">
@@ -49542,20 +49127,18 @@
         <f>'LESSONS (Java)'!J78</f>
         <v>作成課題 ⭐ ヒットアンドブロー</v>
       </c>
-      <c r="K79" s="66">
-        <v>44480</v>
-      </c>
+      <c r="K79" s="66"/>
       <c r="L79" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K78,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="M79" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>●</v>
-      </c>
-      <c r="N79" s="26">
+        <v/>
+      </c>
+      <c r="N79" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v/>
       </c>
     </row>
     <row r="80" spans="3:14" x14ac:dyDescent="0.4">
@@ -49591,20 +49174,18 @@
         <f>'LESSONS (Java)'!J79</f>
         <v>説明用変数</v>
       </c>
-      <c r="K80" s="66">
-        <v>44488</v>
-      </c>
+      <c r="K80" s="66"/>
       <c r="L80" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K79,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M80" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>●</v>
-      </c>
-      <c r="N80" s="26">
+        <v/>
+      </c>
+      <c r="N80" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v/>
       </c>
     </row>
     <row r="81" spans="3:14" x14ac:dyDescent="0.4">
@@ -49640,20 +49221,18 @@
         <f>'LESSONS (Java)'!J80</f>
         <v>マジックナンバーを使わない</v>
       </c>
-      <c r="K81" s="66">
-        <v>44496</v>
-      </c>
+      <c r="K81" s="66"/>
       <c r="L81" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K80,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M81" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>●</v>
-      </c>
-      <c r="N81" s="26">
+        <v/>
+      </c>
+      <c r="N81" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v/>
       </c>
     </row>
     <row r="82" spans="3:14" x14ac:dyDescent="0.4">
@@ -49689,20 +49268,18 @@
         <f>'LESSONS (Java)'!J81</f>
         <v>作成課題 ⭐ 幹事くん</v>
       </c>
-      <c r="K82" s="66">
-        <v>44504</v>
-      </c>
+      <c r="K82" s="66"/>
       <c r="L82" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K81,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="M82" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>●</v>
-      </c>
-      <c r="N82" s="26">
+        <v/>
+      </c>
+      <c r="N82" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v/>
       </c>
     </row>
     <row r="83" spans="3:14" x14ac:dyDescent="0.4">
@@ -49738,20 +49315,18 @@
         <f>'LESSONS (Java)'!J82</f>
         <v>ネストを深くしない</v>
       </c>
-      <c r="K83" s="66">
-        <v>44512</v>
-      </c>
+      <c r="K83" s="66"/>
       <c r="L83" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K82,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M83" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>●</v>
-      </c>
-      <c r="N83" s="26">
+        <v/>
+      </c>
+      <c r="N83" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v/>
       </c>
     </row>
     <row r="84" spans="3:14" x14ac:dyDescent="0.4">
@@ -49787,20 +49362,18 @@
         <f>'LESSONS (Java)'!J83</f>
         <v>その else 文は必要ですか</v>
       </c>
-      <c r="K84" s="66">
-        <v>44520</v>
-      </c>
+      <c r="K84" s="66"/>
       <c r="L84" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K83,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M84" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>●</v>
-      </c>
-      <c r="N84" s="26">
+        <v/>
+      </c>
+      <c r="N84" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v/>
       </c>
     </row>
     <row r="85" spans="3:14" x14ac:dyDescent="0.4">
@@ -49836,20 +49409,18 @@
         <f>'LESSONS (Java)'!J84</f>
         <v>同一性と同値性</v>
       </c>
-      <c r="K85" s="66">
-        <v>44528</v>
-      </c>
+      <c r="K85" s="66"/>
       <c r="L85" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K84,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M85" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>●</v>
-      </c>
-      <c r="N85" s="26">
+        <v/>
+      </c>
+      <c r="N85" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v/>
       </c>
     </row>
     <row r="86" spans="3:14" x14ac:dyDescent="0.4">
@@ -49885,20 +49456,18 @@
         <f>'LESSONS (Java)'!J85</f>
         <v>まとまった処理はメソッドに切り出す</v>
       </c>
-      <c r="K86" s="66">
-        <v>44536</v>
-      </c>
+      <c r="K86" s="66"/>
       <c r="L86" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K85,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M86" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>●</v>
-      </c>
-      <c r="N86" s="26">
+        <v/>
+      </c>
+      <c r="N86" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v/>
       </c>
     </row>
     <row r="87" spans="3:14" x14ac:dyDescent="0.4">
@@ -49934,20 +49503,18 @@
         <f>'LESSONS (Java)'!J86</f>
         <v>作成課題 ⭐ 数字をカンマ区切り文字列に変換する</v>
       </c>
-      <c r="K87" s="66">
-        <v>44544</v>
-      </c>
+      <c r="K87" s="66"/>
       <c r="L87" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K86,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="M87" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>●</v>
-      </c>
-      <c r="N87" s="26">
+        <v/>
+      </c>
+      <c r="N87" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v/>
       </c>
     </row>
     <row r="88" spans="3:14" x14ac:dyDescent="0.4">
@@ -49983,20 +49550,18 @@
         <f>'LESSONS (Java)'!J87</f>
         <v>1つのメソッドには1つの役割を</v>
       </c>
-      <c r="K88" s="66">
-        <v>44552</v>
-      </c>
+      <c r="K88" s="66"/>
       <c r="L88" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K87,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M88" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>●</v>
-      </c>
-      <c r="N88" s="26">
+        <v/>
+      </c>
+      <c r="N88" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v/>
       </c>
     </row>
     <row r="89" spans="3:14" x14ac:dyDescent="0.4">
@@ -50032,20 +49597,18 @@
         <f>'LESSONS (Java)'!J88</f>
         <v>実態に則したメソッド名を付ける</v>
       </c>
-      <c r="K89" s="66">
-        <v>44560</v>
-      </c>
+      <c r="K89" s="66"/>
       <c r="L89" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K88,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M89" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>●</v>
-      </c>
-      <c r="N89" s="26">
+        <v/>
+      </c>
+      <c r="N89" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v/>
       </c>
     </row>
     <row r="90" spans="3:14" x14ac:dyDescent="0.4">
@@ -50081,20 +49644,18 @@
         <f>'LESSONS (Java)'!J89</f>
         <v>作成課題 ⭐ 文字列の圧縮</v>
       </c>
-      <c r="K90" s="66">
-        <v>44568</v>
-      </c>
+      <c r="K90" s="66"/>
       <c r="L90" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K89,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="M90" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>●</v>
-      </c>
-      <c r="N90" s="26">
+        <v/>
+      </c>
+      <c r="N90" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v/>
       </c>
     </row>
     <row r="91" spans="3:14" x14ac:dyDescent="0.4">
@@ -50130,20 +49691,18 @@
         <f>'LESSONS (Java)'!J90</f>
         <v>メソッド呼び出しでストーリーを作る</v>
       </c>
-      <c r="K91" s="66">
-        <v>44576</v>
-      </c>
+      <c r="K91" s="66"/>
       <c r="L91" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K90,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M91" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>●</v>
-      </c>
-      <c r="N91" s="26">
+        <v/>
+      </c>
+      <c r="N91" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v/>
       </c>
     </row>
     <row r="92" spans="3:14" x14ac:dyDescent="0.4">
@@ -50179,20 +49738,18 @@
         <f>'LESSONS (Java)'!J91</f>
         <v>if 文や while 文の条件式をメソッドにする</v>
       </c>
-      <c r="K92" s="66">
-        <v>44584</v>
-      </c>
+      <c r="K92" s="66"/>
       <c r="L92" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K91,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M92" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>●</v>
-      </c>
-      <c r="N92" s="26">
+        <v/>
+      </c>
+      <c r="N92" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v/>
       </c>
     </row>
     <row r="93" spans="3:14" x14ac:dyDescent="0.4">
@@ -50228,20 +49785,18 @@
         <f>'LESSONS (Java)'!J92</f>
         <v>ガード節・早期リターンを利用する</v>
       </c>
-      <c r="K93" s="66">
-        <v>44592</v>
-      </c>
+      <c r="K93" s="66"/>
       <c r="L93" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K92,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M93" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>●</v>
-      </c>
-      <c r="N93" s="26">
+        <v/>
+      </c>
+      <c r="N93" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v/>
       </c>
     </row>
     <row r="94" spans="3:14" x14ac:dyDescent="0.4">
@@ -50277,20 +49832,18 @@
         <f>'LESSONS (Java)'!J93</f>
         <v>作成課題 ⭐ 文字列を１行毎に分割</v>
       </c>
-      <c r="K94" s="66">
-        <v>44641</v>
-      </c>
+      <c r="K94" s="66"/>
       <c r="L94" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K93,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>2</v>
       </c>
       <c r="M94" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>●</v>
-      </c>
-      <c r="N94" s="26">
+        <v/>
+      </c>
+      <c r="N94" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>2</v>
+        <v/>
       </c>
     </row>
     <row r="95" spans="3:14" x14ac:dyDescent="0.4">
@@ -50326,20 +49879,18 @@
         <f>'LESSONS (Java)'!J94</f>
         <v>メソッド名は動詞始まりにする</v>
       </c>
-      <c r="K95" s="66">
-        <v>44644</v>
-      </c>
+      <c r="K95" s="66"/>
       <c r="L95" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K94,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M95" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>●</v>
-      </c>
-      <c r="N95" s="26">
+        <v/>
+      </c>
+      <c r="N95" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v/>
       </c>
     </row>
     <row r="96" spans="3:14" x14ac:dyDescent="0.4">
@@ -50375,20 +49926,18 @@
         <f>'LESSONS (Java)'!J95</f>
         <v>🤔 コードは意図を伝えるもの</v>
       </c>
-      <c r="K96" s="66">
-        <v>44648</v>
-      </c>
+      <c r="K96" s="66"/>
       <c r="L96" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K95,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M96" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>●</v>
-      </c>
-      <c r="N96" s="26">
+        <v/>
+      </c>
+      <c r="N96" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v/>
       </c>
     </row>
     <row r="97" spans="3:14" x14ac:dyDescent="0.4">
@@ -50424,20 +49973,18 @@
         <f>'LESSONS (Java)'!J96</f>
         <v>🤔 読みやすく改修しやすいコード</v>
       </c>
-      <c r="K97" s="66">
-        <v>44651</v>
-      </c>
+      <c r="K97" s="66"/>
       <c r="L97" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K96,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M97" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>●</v>
-      </c>
-      <c r="N97" s="26">
+        <v/>
+      </c>
+      <c r="N97" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v/>
       </c>
     </row>
     <row r="98" spans="3:14" x14ac:dyDescent="0.4">
@@ -50473,20 +50020,18 @@
         <f>'LESSONS (Java)'!J97</f>
         <v>不吉なにおい 🐽 処理のかたまりにコメントを付ける</v>
       </c>
-      <c r="K98" s="66">
-        <v>44654</v>
-      </c>
+      <c r="K98" s="66"/>
       <c r="L98" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K97,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M98" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>●</v>
-      </c>
-      <c r="N98" s="26">
+        <v/>
+      </c>
+      <c r="N98" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v/>
       </c>
     </row>
     <row r="99" spans="3:14" x14ac:dyDescent="0.4">
@@ -50522,20 +50067,18 @@
         <f>'LESSONS (Java)'!J98</f>
         <v>不吉なにおい 🐽 コピペのように処理を複製する</v>
       </c>
-      <c r="K99" s="66">
-        <v>44657</v>
-      </c>
+      <c r="K99" s="66"/>
       <c r="L99" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K98,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M99" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>●</v>
-      </c>
-      <c r="N99" s="26">
+        <v/>
+      </c>
+      <c r="N99" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v/>
       </c>
     </row>
     <row r="100" spans="3:14" x14ac:dyDescent="0.4">
@@ -50571,20 +50114,18 @@
         <f>'LESSONS (Java)'!J99</f>
         <v>作成課題 ⭐ ネームバトラー（初級編）</v>
       </c>
-      <c r="K100" s="66">
-        <v>44819</v>
-      </c>
+      <c r="K100" s="66"/>
       <c r="L100" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K99,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>4</v>
       </c>
       <c r="M100" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>●</v>
-      </c>
-      <c r="N100" s="26">
+        <v/>
+      </c>
+      <c r="N100" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>4</v>
+        <v/>
       </c>
     </row>
     <row r="101" spans="3:14" x14ac:dyDescent="0.4">
@@ -50620,20 +50161,18 @@
         <f>'LESSONS (Java)'!J100</f>
         <v>オブジェクト指向 OOP とは</v>
       </c>
-      <c r="K101" s="66">
-        <v>44825</v>
-      </c>
+      <c r="K101" s="66"/>
       <c r="L101" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K100,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M101" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>●</v>
-      </c>
-      <c r="N101" s="26">
+        <v/>
+      </c>
+      <c r="N101" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v/>
       </c>
     </row>
     <row r="102" spans="3:14" x14ac:dyDescent="0.4">
@@ -50669,20 +50208,18 @@
         <f>'LESSONS (Java)'!J101</f>
         <v>Java のクラス</v>
       </c>
-      <c r="K102" s="66">
-        <v>44831</v>
-      </c>
+      <c r="K102" s="66"/>
       <c r="L102" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K101,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M102" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>●</v>
-      </c>
-      <c r="N102" s="26">
+        <v/>
+      </c>
+      <c r="N102" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v/>
       </c>
     </row>
     <row r="103" spans="3:14" x14ac:dyDescent="0.4">
@@ -50718,20 +50255,18 @@
         <f>'LESSONS (Java)'!J102</f>
         <v>インスタンスメソッド</v>
       </c>
-      <c r="K103" s="66">
-        <v>44831</v>
-      </c>
+      <c r="K103" s="66"/>
       <c r="L103" s="26">
         <f>VLOOKUP('LESSONS (Java)'!K102,MAN_HOURS!$C$9:$E$155,3,FALSE)</f>
         <v>1.5</v>
       </c>
       <c r="M103" s="27" t="str">
         <f t="shared" si="2"/>
-        <v>●</v>
-      </c>
-      <c r="N103" s="26">
+        <v/>
+      </c>
+      <c r="N103" s="26" t="str">
         <f t="shared" si="3"/>
-        <v>1.5</v>
+        <v/>
       </c>
     </row>
     <row r="104" spans="3:14" x14ac:dyDescent="0.4">
@@ -53230,7 +52765,7 @@
     </row>
     <row r="158" spans="3:15" x14ac:dyDescent="0.4">
       <c r="L158" s="67" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="M158" s="68"/>
       <c r="N158" s="68"/>
@@ -53241,25 +52776,25 @@
     </row>
     <row r="159" spans="3:15" x14ac:dyDescent="0.4">
       <c r="L159" s="70" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="O159" s="71">
         <f>SUM(N10:N156)</f>
-        <v>129.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="3:15" x14ac:dyDescent="0.4">
       <c r="L160" s="70" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="O160" s="78">
         <f>O159/O158</f>
-        <v>0.51800000000000002</v>
+        <v>4.0000000000000001E-3</v>
       </c>
     </row>
     <row r="161" spans="12:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="L161" s="73" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="M161" s="74"/>
       <c r="N161" s="74"/>
@@ -53275,12 +52810,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="cd53bf70-8e6f-4da2-af82-26fc64f86641" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bd81839b-0946-4c0b-8c9f-38b7545f6b39">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -53479,28 +53016,41 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="cd53bf70-8e6f-4da2-af82-26fc64f86641" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="bd81839b-0946-4c0b-8c9f-38b7545f6b39">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{550AA099-B571-453C-B640-3D478A3950F5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{140391EB-B243-42E5-8FE3-6DBFC6C76816}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3CC509-AC8D-41FF-84FE-DE48381C84EF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3CC509-AC8D-41FF-84FE-DE48381C84EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bd81839b-0946-4c0b-8c9f-38b7545f6b39"/>
+    <ds:schemaRef ds:uri="cd53bf70-8e6f-4da2-af82-26fc64f86641"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{140391EB-B243-42E5-8FE3-6DBFC6C76816}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{550AA099-B571-453C-B640-3D478A3950F5}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>